--- a/Annotations/annotations_ZH.xlsx
+++ b/Annotations/annotations_ZH.xlsx
@@ -847,7 +847,7 @@
         <v>持久和平将会实现</v>
       </c>
       <c r="D32" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="33">
@@ -861,7 +861,7 @@
         <v>夏令时将影响您的实践，请考虑这一点。</v>
       </c>
       <c r="D33" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="34">
@@ -889,7 +889,7 @@
         <v>C-3法案提供了一项豁免，授权法官提取样本。</v>
       </c>
       <c r="D35" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="36">
@@ -903,7 +903,7 @@
         <v>如果你停止吸烟烟草产品，你就不会得肺癌。</v>
       </c>
       <c r="D36" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="37">
@@ -917,7 +917,7 @@
         <v>员工们不愿意提供宣誓书。</v>
       </c>
       <c r="D37" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="38">
@@ -931,7 +931,7 @@
         <v>达赖喇嘛是一位热爱和平的领袖。</v>
       </c>
       <c r="D38" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="39">
@@ -945,7 +945,7 @@
         <v>钟路拥有一支公交车队。</v>
       </c>
       <c r="D39" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="40">
@@ -959,7 +959,7 @@
         <v>这个人研究版权法。</v>
       </c>
       <c r="D40" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="41">
@@ -973,7 +973,7 @@
         <v>不要服用维生素E。</v>
       </c>
       <c r="D41" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="42">
@@ -987,7 +987,7 @@
         <v>欧洲人更改版权细节</v>
       </c>
       <c r="D42" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="43">
@@ -1001,7 +1001,7 @@
         <v>Mixbin电子公司制造电子产品</v>
       </c>
       <c r="D43" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="44">
@@ -1015,7 +1015,7 @@
         <v>医学自从在美洲首次起步以来已经取得了很大进展。</v>
       </c>
       <c r="D44" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="45">
@@ -1029,7 +1029,7 @@
         <v>该声明提到了名字以M和F开头的人。</v>
       </c>
       <c r="D45" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="46">
@@ -1057,7 +1057,7 @@
         <v>你的心脏控制着你身体的时钟。</v>
       </c>
       <c r="D47" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="48">
@@ -1071,7 +1071,7 @@
         <v>还有另一段。</v>
       </c>
       <c r="D48" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="49">
@@ -1085,7 +1085,7 @@
         <v>如果吸烟导致异常细胞，那么异常细胞就是癌症的唯一原因。</v>
       </c>
       <c r="D49" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="50">
@@ -1099,7 +1099,7 @@
         <v>北朝鲜安装了新的检查摄像头。</v>
       </c>
       <c r="D50" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="51">
@@ -1113,7 +1113,7 @@
         <v>如果对手是独自一人，你就能获胜。</v>
       </c>
       <c r="D51" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="52">
@@ -1127,7 +1127,7 @@
         <v>卖车就像在沙漠中卖水。</v>
       </c>
       <c r="D52" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="53">
@@ -1141,7 +1141,7 @@
         <v>白金汉通常在会议上发言。</v>
       </c>
       <c r="D53" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="54">
@@ -1155,7 +1155,7 @@
         <v>这种类型的瓷砖需要拖地。</v>
       </c>
       <c r="D54" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="55">
@@ -1169,7 +1169,7 @@
         <v>医生会记录患者的疫苗接种历史。</v>
       </c>
       <c r="D55" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="56">
@@ -1183,7 +1183,7 @@
         <v>这个问题很难回答。</v>
       </c>
       <c r="D56" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="57">
@@ -1197,7 +1197,7 @@
         <v>版权法已经存在超过200年。</v>
       </c>
       <c r="D57" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="58">
@@ -1211,7 +1211,7 @@
         <v>这封重要的信是关于贝丝·埃夫兰德所做的评论。</v>
       </c>
       <c r="D58" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="59">
@@ -1225,7 +1225,7 @@
         <v>哈罗米奶酪最好在户外食用。</v>
       </c>
       <c r="D59" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="60">
@@ -1239,7 +1239,7 @@
         <v>比利时主要是弗拉芒人。</v>
       </c>
       <c r="D60" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="61">
@@ -1253,7 +1253,7 @@
         <v>莱姆病是遗传的。</v>
       </c>
       <c r="D61" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="62">
@@ -1267,7 +1267,7 @@
         <v>《奥地利》是一部电影。</v>
       </c>
       <c r="D62" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="63">
@@ -1281,7 +1281,7 @@
         <v>《富有的女孩》有一位德国说唱歌手。</v>
       </c>
       <c r="D63" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="64">
@@ -1295,7 +1295,7 @@
         <v>路易斯·汤姆林森出现在ITV的一部喜剧中。</v>
       </c>
       <c r="D64" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="65">
@@ -1309,7 +1309,7 @@
         <v>詹妮弗·加纳出演了一部电影。</v>
       </c>
       <c r="D65" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="66">
@@ -1323,7 +1323,7 @@
         <v>詹姆斯·威尔逊是一个真实的人，尚未被塑造成虚构角色。</v>
       </c>
       <c r="D66" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="67">
@@ -1337,7 +1337,7 @@
         <v>迈克尔先生将被起诉。</v>
       </c>
       <c r="D67" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="68">
@@ -1351,7 +1351,7 @@
         <v>如果有人收到割礼的邀请，他们会感到受到冷落。</v>
       </c>
       <c r="D68" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="69">
@@ -1365,7 +1365,7 @@
         <v>该频道已从互联网上移除下载。</v>
       </c>
       <c r="D69" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="70">
@@ -1379,7 +1379,7 @@
         <v>下载该频道的前提是必须安装 Internet Explorer。</v>
       </c>
       <c r="D70" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="71">
@@ -1393,7 +1393,7 @@
         <v>有一个固定数量的选民。</v>
       </c>
       <c r="D71" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="72">
@@ -1407,7 +1407,7 @@
         <v>期权交易者为斯科尔斯和默顿热烈鼓掌。</v>
       </c>
       <c r="D72" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="73">
@@ -1421,7 +1421,7 @@
         <v>如果我们不关注世界上的麦当劳，它们就会自行消失。</v>
       </c>
       <c r="D73" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="74">
@@ -1435,7 +1435,7 @@
         <v>20%的新共同基金资金流入指数基金是一个非常积极的迹象。</v>
       </c>
       <c r="D74" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="75">
@@ -1449,7 +1449,7 @@
         <v>安德鲁·鲍姆加特纳是一位无聊的老师。</v>
       </c>
       <c r="D75" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="76">
@@ -1463,7 +1463,7 @@
         <v>大佬们认为这是无风险的。</v>
       </c>
       <c r="D76" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="77">
@@ -1477,7 +1477,7 @@
         <v>调查可以在线填写。</v>
       </c>
       <c r="D77" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="78">
@@ -1491,7 +1491,7 @@
         <v>支持选择的媒体愿意接受支持他们主张的统计数据，即使这些数据不正确。</v>
       </c>
       <c r="D78" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="79">
@@ -1519,7 +1519,7 @@
         <v>肯尼威克人如果有证据存在，就可以对自己的保留地做出选择。</v>
       </c>
       <c r="D80" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="81">
@@ -1533,7 +1533,7 @@
         <v>在期权交易所的交易大厅中，人们常常能听到掌声。</v>
       </c>
       <c r="D81" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="82">
@@ -1561,7 +1561,7 @@
         <v>正在进行一场文化内战。</v>
       </c>
       <c r="D83" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="84">
@@ -1575,7 +1575,7 @@
         <v>因此，你要撕裂他们的束缚，使她所说和呼唤他的确实无效。</v>
       </c>
       <c r="D84" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="85">
@@ -1589,7 +1589,7 @@
         <v>如果这本期刊是免费的，广告商会放弃它。</v>
       </c>
       <c r="D85" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="86">
@@ -1603,7 +1603,7 @@
         <v>如果他以保证金买入，他将面临更大的损失。</v>
       </c>
       <c r="D86" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="87">
@@ -1617,7 +1617,7 @@
         <v>她正走在通往死亡的道路上。</v>
       </c>
       <c r="D87" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="88">
@@ -1631,7 +1631,7 @@
         <v>在成功驯化动物后，选择将它们作为宠物是个人的选择。</v>
       </c>
       <c r="D88" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="89">
@@ -1645,7 +1645,7 @@
         <v>您可以点击这里阅读乔恩·罗宾·贝茨对这一争议的看法以及他对审查制度的意见。</v>
       </c>
       <c r="D89" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="90">
@@ -1673,7 +1673,7 @@
         <v>兰兹堡正在批评美利坚合众国。</v>
       </c>
       <c r="D91" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="92">
@@ -1687,7 +1687,7 @@
         <v>很少有实体出版物价格昂贵——大多数情况下，它们非常实惠。</v>
       </c>
       <c r="D92" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="93">
@@ -1701,7 +1701,7 @@
         <v>堕胎程序很重要</v>
       </c>
       <c r="D93" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="94">
@@ -1715,7 +1715,7 @@
         <v>在退休前使用IRA账户可以带来税收优惠。</v>
       </c>
       <c r="D94" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="95">
@@ -1729,7 +1729,7 @@
         <v>他们的退出可以采取一种微妙的方法。</v>
       </c>
       <c r="D95" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="96">
@@ -1743,7 +1743,7 @@
         <v>有国会议员乘坐过纽约市地铁。</v>
       </c>
       <c r="D96" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="97">
@@ -1771,7 +1771,7 @@
         <v>比尔·盖茨在支付账单方面遇到了困难。</v>
       </c>
       <c r="D98" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="99">
@@ -1785,7 +1785,7 @@
         <v>评论家对所有社会小说持轻视态度。</v>
       </c>
       <c r="D99" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="100">
@@ -1799,7 +1799,7 @@
         <v>吃甲壳类动物让你看起来像是以鸟类的方式进食。</v>
       </c>
       <c r="D100" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="101">
@@ -1813,7 +1813,7 @@
         <v>《达拉斯晨报》的报道有助于进一步揭示克林顿与莱温斯基之间发生的事件。</v>
       </c>
       <c r="D101" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="102">

--- a/Annotations/annotations_ZH.xlsx
+++ b/Annotations/annotations_ZH.xlsx
@@ -1827,7 +1827,7 @@
         <v>他同意是因为否则就会被弹劾。</v>
       </c>
       <c r="D102" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="103">
@@ -1841,7 +1841,7 @@
         <v>乔治·布什老总统和乔治·W·布什都来自南方。</v>
       </c>
       <c r="D103" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="104">
@@ -1855,7 +1855,7 @@
         <v>大多数负面情绪重新出现了。</v>
       </c>
       <c r="D104" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="105">
@@ -1869,7 +1869,7 @@
         <v>堕胎是不愉快的。</v>
       </c>
       <c r="D105" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="106">
@@ -1883,7 +1883,7 @@
         <v>有些人关心法官是否诚实。</v>
       </c>
       <c r="D106" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="107">
@@ -1897,7 +1897,7 @@
         <v>部分出生堕胎、D和E都是一样的。</v>
       </c>
       <c r="D107" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="108">
@@ -1911,7 +1911,7 @@
         <v>这对情侣正在拍摄一段同性恋视频，他们之前从未见过面。</v>
       </c>
       <c r="D108" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="109">
@@ -1925,7 +1925,7 @@
         <v>看起来它要失败了。</v>
       </c>
       <c r="D109" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="110">
@@ -1939,7 +1939,7 @@
         <v>复训课程是强制性的。</v>
       </c>
       <c r="D110" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="111">
@@ -1953,7 +1953,7 @@
         <v>原因就在答案中。</v>
       </c>
       <c r="D111" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="112">
@@ -1967,7 +1967,7 @@
         <v>在普通戏剧中没有暴力是错误的。</v>
       </c>
       <c r="D112" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="113">
@@ -1981,7 +1981,7 @@
         <v>媒体爱好者被视为一个新时代。</v>
       </c>
       <c r="D113" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="114">
@@ -1995,7 +1995,7 @@
         <v>他们肯定会买下它。</v>
       </c>
       <c r="D114" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="115">
@@ -2009,7 +2009,7 @@
         <v>华尔街和媒体爱好者有很多共同之处。</v>
       </c>
       <c r="D115" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="116">
@@ -2023,7 +2023,7 @@
         <v>患者不再起诉保险公司将是朝着正确方向迈出的一步。</v>
       </c>
       <c r="D116" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="117">
@@ -2037,7 +2037,7 @@
         <v>他打算成为一个严重的威胁。</v>
       </c>
       <c r="D117" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="118">
@@ -2051,7 +2051,7 @@
         <v>这个故事太搞笑了。</v>
       </c>
       <c r="D118" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="119">
@@ -2065,7 +2065,7 @@
         <v>政府不控制禁运。</v>
       </c>
       <c r="D119" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="120">
@@ -2079,7 +2079,7 @@
         <v>如果您的孩子已经有保险，那么该项目将不予覆盖。</v>
       </c>
       <c r="D120" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="121">
@@ -2093,7 +2093,7 @@
         <v>没有人会自发地得出这是一个杰作的结论。</v>
       </c>
       <c r="D121" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="122">
@@ -2107,7 +2107,7 @@
         <v>如果法律能有严厉的后果就好了。</v>
       </c>
       <c r="D122" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="123">
@@ -2121,7 +2121,7 @@
         <v>即使纵轴的数据发生变化，Y轴截距总体上也会保持不变。</v>
       </c>
       <c r="D123" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="124">
@@ -2135,7 +2135,7 @@
         <v>保守派认为伪证就是伪证，没有人能逃脱惩罚。</v>
       </c>
       <c r="D124" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="125">
@@ -2163,7 +2163,7 @@
         <v>变化将提供其自身的保护。</v>
       </c>
       <c r="D126" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="127">
@@ -2177,7 +2177,7 @@
         <v>在法国大都市骑自行车是安全和放松的。</v>
       </c>
       <c r="D127" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="128">
@@ -2191,7 +2191,7 @@
         <v>目前尚不清楚虐待是否发生得更频繁，还是仅仅被报告得更频繁。</v>
       </c>
       <c r="D128" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="129">
@@ -2205,7 +2205,7 @@
         <v>实习生没有报酬。</v>
       </c>
       <c r="D129" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="130">
@@ -2219,7 +2219,7 @@
         <v>如果他说你会喜欢《快乐德克萨斯》，那他就不是一个好朋友，文章写道。</v>
       </c>
       <c r="D130" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="131">
@@ -2233,7 +2233,7 @@
         <v>我会偶尔去一次，当我想去的时候。</v>
       </c>
       <c r="D131" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="132">
@@ -2247,7 +2247,7 @@
         <v>即使你收费，遵守规则也是可能的。</v>
       </c>
       <c r="D132" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="133">
@@ -2275,7 +2275,7 @@
         <v>一开始很难判断弗雷德是否优秀。</v>
       </c>
       <c r="D134" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="135">
@@ -2289,7 +2289,7 @@
         <v>店员说如果我选择雕刻，他会给我20%的折扣。</v>
       </c>
       <c r="D135" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="136">
@@ -2303,7 +2303,7 @@
         <v>如果乐队喊“ole”，这意味着斗牛士表现不好。</v>
       </c>
       <c r="D136" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="137">
@@ -2317,7 +2317,7 @@
         <v>我们对待原住民的方式让卡斯特显得很仁慈。</v>
       </c>
       <c r="D137" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="138">
@@ -2331,7 +2331,7 @@
         <v>许多人喜欢购买一只填充的河豚作为纪念品，它还可以用作灯罩。</v>
       </c>
       <c r="D138" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="139">
@@ -2345,7 +2345,7 @@
         <v>这不是问题。</v>
       </c>
       <c r="D139" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="140">
@@ -2359,7 +2359,7 @@
         <v>我在完成之前被抓住了。</v>
       </c>
       <c r="D140" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="141">
@@ -2373,7 +2373,7 @@
         <v>他可以访问所有信息，如果受到轻视会迅速采取行动。</v>
       </c>
       <c r="D141" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="142">
@@ -2387,7 +2387,7 @@
         <v>如果我们尊重他的遗产，他会很高兴。</v>
       </c>
       <c r="D142" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="143">
@@ -2401,7 +2401,7 @@
         <v>在歌剧院后面有两个最著名的百货商店，如果你能找到的话。</v>
       </c>
       <c r="D143" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="144">
@@ -2415,7 +2415,7 @@
         <v>您知道您并没有为任何候选人投票。</v>
       </c>
       <c r="D144" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="145">
@@ -2429,7 +2429,7 @@
         <v>每个人在上大学时都会得到父母的帮助。</v>
       </c>
       <c r="D145" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="146">
@@ -2443,7 +2443,7 @@
         <v>文章中的链接包含与文章底部链接不同的内容。</v>
       </c>
       <c r="D146" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="147">
@@ -2457,7 +2457,7 @@
         <v>大师鞋匠与他的助手保持着专业的关系。</v>
       </c>
       <c r="D147" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="148">
@@ -2471,7 +2471,7 @@
         <v>如果你幸运的话，这件事就不会发生。</v>
       </c>
       <c r="D148" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="149">
@@ -2485,7 +2485,7 @@
         <v>如果我说实话，它并不总是能保护你的手指。</v>
       </c>
       <c r="D149" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="150">
@@ -2499,7 +2499,7 @@
         <v>如果出现问题，您无需咨询LSC。</v>
       </c>
       <c r="D150" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="151">
@@ -2513,7 +2513,7 @@
         <v>我预计结果会有显著不同。</v>
       </c>
       <c r="D151" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="152">
@@ -2527,7 +2527,7 @@
         <v>如果我改变，我们还会继续做朋友吗？</v>
       </c>
       <c r="D152" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="153">
@@ -2541,7 +2541,7 @@
         <v>他被特别问到了来自加利福尼亚的摄影师。</v>
       </c>
       <c r="D153" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="154">
@@ -2555,7 +2555,7 @@
         <v>每五年或每三年进行一次安装确实会影响劳动力成本。</v>
       </c>
       <c r="D154" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="155">
@@ -2569,7 +2569,7 @@
         <v>共和党选民投票率低。</v>
       </c>
       <c r="D155" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="156">

--- a/Annotations/annotations_ZH.xlsx
+++ b/Annotations/annotations_ZH.xlsx
@@ -2583,7 +2583,7 @@
         <v>我应该等多久才让别人把衣服从洗衣机或烘干机里拿出来？</v>
       </c>
       <c r="D156" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="157">
@@ -2597,7 +2597,7 @@
         <v>法官指着那些喧闹的女性，要求立即安静。</v>
       </c>
       <c r="D157" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="158">
@@ -2611,7 +2611,7 @@
         <v>众所周知，您可以通过听他们唱歌来理解他们的语言。</v>
       </c>
       <c r="D158" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="159">
@@ -2625,7 +2625,7 @@
         <v>他奶奶现在的状态很糟糕。</v>
       </c>
       <c r="D159" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="160">
@@ -2639,7 +2639,7 @@
         <v>如果您寄送这张特定的卡片，您将赢得一杯免费咖啡。</v>
       </c>
       <c r="D160" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="161">
@@ -2653,7 +2653,7 @@
         <v>如果我们能看到那些人正在离开这个国家的证据，那么那些人就不会留下来。</v>
       </c>
       <c r="D161" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="162">
@@ -2667,7 +2667,7 @@
         <v>虽然那是很久以前的事，但它仍然非常重要。</v>
       </c>
       <c r="D162" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="163">
@@ -2681,7 +2681,7 @@
         <v>有人想知道如果克林顿被传唤到法庭上是否会行使第五修正案的权利。</v>
       </c>
       <c r="D163" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="164">
@@ -2695,7 +2695,7 @@
         <v>到达维多利亚峰花园需要徒步旅行。</v>
       </c>
       <c r="D164" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="165">
@@ -2709,7 +2709,7 @@
         <v>如果你在年底之前不使用它，它就没了。</v>
       </c>
       <c r="D165" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="166">
@@ -2723,7 +2723,7 @@
         <v>在创伤和急救期刊上发表文章是改变实践的唯一途径。</v>
       </c>
       <c r="D166" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="167">
@@ -2737,7 +2737,7 @@
         <v>卖方在某个州并不总是有足够的实体存在。</v>
       </c>
       <c r="D167" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="168">
@@ -2751,7 +2751,7 @@
         <v>叙述者是一个吸血鬼，这是他们的吸血鬼能力之一。</v>
       </c>
       <c r="D168" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="169">

--- a/Annotations/annotations_ZH.xlsx
+++ b/Annotations/annotations_ZH.xlsx
@@ -2751,7 +2751,7 @@
         <v>叙述者是一个吸血鬼，这是他们的吸血鬼能力之一。</v>
       </c>
       <c r="D168" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="169">
@@ -2765,7 +2765,7 @@
         <v>如果当前利率保持不变，国债市场价格也将保持不变。</v>
       </c>
       <c r="D169" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="170">
@@ -2779,7 +2779,7 @@
         <v>这是一辆奇怪的车，叫做萨博，不确定那里是否有。</v>
       </c>
       <c r="D170" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="171">
@@ -2793,7 +2793,7 @@
         <v>没有任何理由可以让任何政府对这个产品实施禁运。</v>
       </c>
       <c r="D171" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="172">
@@ -2807,7 +2807,7 @@
         <v>你难道不明白信用是如何运作的吗？</v>
       </c>
       <c r="D172" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="173">
@@ -2821,7 +2821,7 @@
         <v>我们与该公司没有任何账单经验。</v>
       </c>
       <c r="D173" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="174">
@@ -2835,7 +2835,7 @@
         <v>没有沟通就没有谎言。</v>
       </c>
       <c r="D174" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="175">
@@ -2849,7 +2849,7 @@
         <v>如果你的健康状况不好，养老院是个不错的选择。</v>
       </c>
       <c r="D175" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="176">
@@ -2863,7 +2863,7 @@
         <v>如果这种商品免费提供，需求量将会增加。</v>
       </c>
       <c r="D176" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="177">
@@ -2877,7 +2877,7 @@
         <v>他们愿意面对恶劣的条件并留在俄罗斯。</v>
       </c>
       <c r="D177" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="178">
@@ -2891,7 +2891,7 @@
         <v>我们没有年级预算。</v>
       </c>
       <c r="D178" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="179">
@@ -2905,7 +2905,7 @@
         <v>如果没有盖·奥伦蒂，18世纪的格拉西宫将显得不堪入目。</v>
       </c>
       <c r="D179" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="180">
@@ -2919,7 +2919,7 @@
         <v>与孩子一起工作的父母让他们处于很大的劣势。</v>
       </c>
       <c r="D180" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="181">
@@ -2933,7 +2933,7 @@
         <v>我们不是从他那里得知这个的。</v>
       </c>
       <c r="D181" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="182">
@@ -2947,7 +2947,7 @@
         <v>林肯并不担心，慢慢走着。</v>
       </c>
       <c r="D182" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="183">
@@ -2961,7 +2961,7 @@
         <v>我思考我是否做得很好。</v>
       </c>
       <c r="D183" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="184">
@@ -2975,7 +2975,7 @@
         <v>我用我的小剑打了你。</v>
       </c>
       <c r="D184" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="185">
@@ -2989,7 +2989,7 @@
         <v>显然我们赢了。</v>
       </c>
       <c r="D185" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="186">
@@ -3003,7 +3003,7 @@
         <v>当没有阳光时，我感觉就像生活在一个洞穴里。</v>
       </c>
       <c r="D186" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="187">
@@ -3017,7 +3017,7 @@
         <v>走路会让你迷路。</v>
       </c>
       <c r="D187" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="188">
@@ -3031,7 +3031,7 @@
         <v>队伍中的抱怨没有带来任何结果。</v>
       </c>
       <c r="D188" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="189">
@@ -3045,7 +3045,7 @@
         <v>大家都知道汤米根本不够聪明，无法理解这个联系。</v>
       </c>
       <c r="D189" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="190">
@@ -3059,7 +3059,7 @@
         <v>我有理由怀疑曼彻斯特的那个女孩只是一个安插的人。</v>
       </c>
       <c r="D190" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="191">
@@ -3073,7 +3073,7 @@
         <v>戒律不是宗教。</v>
       </c>
       <c r="D191" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="192">
@@ -3087,7 +3087,7 @@
         <v>如果组织对其商业目标有清晰的理解，它将能够利用提议的信息系统来实现这些目标。</v>
       </c>
       <c r="D192" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="193">
@@ -3101,7 +3101,7 @@
         <v>他不会犯错误。</v>
       </c>
       <c r="D193" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="194">
@@ -3115,7 +3115,7 @@
         <v>该产品经过测试，以评估其抵御不利环境条件的能力。</v>
       </c>
       <c r="D194" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="195">
@@ -3129,7 +3129,7 @@
         <v>他们会说他们准备好了。</v>
       </c>
       <c r="D195" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="196">
@@ -3143,7 +3143,7 @@
         <v>我们必须改变规则。</v>
       </c>
       <c r="D196" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="197">
@@ -3157,7 +3157,7 @@
         <v>我不在那个地址。</v>
       </c>
       <c r="D197" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="198">
@@ -3171,7 +3171,7 @@
         <v>国家将能够控制军队。</v>
       </c>
       <c r="D198" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="199">
@@ -3185,7 +3185,7 @@
         <v>如果警方认为犯罪是由一个人所为，他们将逮捕那个人。</v>
       </c>
       <c r="D199" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="200">
@@ -3199,7 +3199,7 @@
         <v>我自己来做。</v>
       </c>
       <c r="D200" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="201">
@@ -3213,7 +3213,7 @@
         <v>如果新政策实施，医疗保健系统将面临压力。</v>
       </c>
       <c r="D201" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="202">
@@ -3227,7 +3227,7 @@
         <v>我可以做到。</v>
       </c>
       <c r="D202" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="203">
@@ -3241,7 +3241,7 @@
         <v>民主党将赢得白宫。</v>
       </c>
       <c r="D203" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="204">
@@ -3255,7 +3255,7 @@
         <v>我会给你写一封信。</v>
       </c>
       <c r="D204" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="205">
@@ -3269,7 +3269,7 @@
         <v>你可以坐火车。</v>
       </c>
       <c r="D205" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="206">
@@ -3283,7 +3283,7 @@
         <v>如果她翻白眼，那就是在讽刺。</v>
       </c>
       <c r="D206" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="207">
@@ -3297,7 +3297,7 @@
         <v>你不可以离开。</v>
       </c>
       <c r="D207" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="208">
@@ -3311,7 +3311,7 @@
         <v>测试的成本将会很高。</v>
       </c>
       <c r="D208" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="209">
@@ -3325,7 +3325,7 @@
         <v>如果你得不到某样东西，那你就不配拥有它。</v>
       </c>
       <c r="D209" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="210">
@@ -3339,7 +3339,7 @@
         <v>我不是一个聪明的人。</v>
       </c>
       <c r="D210" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="211">
@@ -3353,7 +3353,7 @@
         <v>这部电影就是“痛苦”这个词。</v>
       </c>
       <c r="D211" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="212">
@@ -3367,7 +3367,7 @@
         <v>月亮上的人没有信息要传达。</v>
       </c>
       <c r="D212" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="213">
@@ -3381,7 +3381,7 @@
         <v>你最终会像我一样。</v>
       </c>
       <c r="D213" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="214">
@@ -3395,7 +3395,7 @@
         <v>如果你记不起来，那这次对话就结束了。</v>
       </c>
       <c r="D214" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="215">
@@ -3409,7 +3409,7 @@
         <v>我们将成为世界上唯一一个不这样做的国家。</v>
       </c>
       <c r="D215" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="216">
@@ -3423,7 +3423,7 @@
         <v>邮政服务没有关闭。</v>
       </c>
       <c r="D216" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="217">
@@ -3437,7 +3437,7 @@
         <v>如果我们没有攻击他们，北越就不会攻击我们。</v>
       </c>
       <c r="D217" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="218">
@@ -3451,7 +3451,7 @@
         <v>这个想法没有经过深思熟虑。</v>
       </c>
       <c r="D218" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="219">
@@ -3465,7 +3465,7 @@
         <v>一把刀刺入了我的心。</v>
       </c>
       <c r="D219" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="220">
@@ -3479,7 +3479,7 @@
         <v>如果你不听我说的话，你将不得不面对后果。</v>
       </c>
       <c r="D220" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="221">
@@ -3493,7 +3493,7 @@
         <v>如果你是无辜的，你就被假定为无辜。</v>
       </c>
       <c r="D221" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="222">
@@ -3507,7 +3507,7 @@
         <v>参议院通过了预算。</v>
       </c>
       <c r="D222" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="223">
@@ -3521,7 +3521,7 @@
         <v>你不能被信任使用枪械。</v>
       </c>
       <c r="D223" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="224">
@@ -3535,7 +3535,7 @@
         <v>配送路线利润率的标准差很小。</v>
       </c>
       <c r="D224" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="225">
@@ -3549,7 +3549,7 @@
         <v>问题不一样。</v>
       </c>
       <c r="D225" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="226">
@@ -3563,7 +3563,7 @@
         <v>老话说得对。</v>
       </c>
       <c r="D226" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="227">
@@ -3577,7 +3577,7 @@
         <v>州长预计将任命一名特别检察官。</v>
       </c>
       <c r="D227" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="228">
@@ -3591,7 +3591,7 @@
         <v>美国将成为一个香蕉共和国。</v>
       </c>
       <c r="D228" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="229">
@@ -3619,7 +3619,7 @@
         <v>观察者只有在密切关注观察者的情况下，才能密切关注事物。</v>
       </c>
       <c r="D230" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="231">

--- a/Annotations/annotations_ZH.xlsx
+++ b/Annotations/annotations_ZH.xlsx
@@ -3633,7 +3633,7 @@
         <v>其结果是引发了公众对艺术的更多兴趣。</v>
       </c>
       <c r="D231" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="232">
@@ -3647,7 +3647,7 @@
         <v>问题的根本原因没有被识别出来。</v>
       </c>
       <c r="D232" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="233">
@@ -3661,7 +3661,7 @@
         <v>这本书是神奇的。</v>
       </c>
       <c r="D233" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="234">
@@ -3675,7 +3675,7 @@
         <v>如果你要求一张好桌子，你就会得到一张好桌子。</v>
       </c>
       <c r="D234" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="235">
@@ -3689,7 +3689,7 @@
         <v>未来不可能出现类似的情况。</v>
       </c>
       <c r="D235" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="236">
@@ -3703,7 +3703,7 @@
         <v>转移财产的公允价值与收到财产的价值相同。</v>
       </c>
       <c r="D236" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="237">
@@ -3731,7 +3731,7 @@
         <v>如果我们可以说有一个单一的身份，那就是一种集体身份。</v>
       </c>
       <c r="D238" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="239">
@@ -3745,7 +3745,7 @@
         <v>穿着你的西装去派对并不不吉利。</v>
       </c>
       <c r="D239" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="240">
@@ -3759,7 +3759,7 @@
         <v>狗不在房间里，所以声音听不见。</v>
       </c>
       <c r="D240" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="241">
@@ -3773,7 +3773,7 @@
         <v>元首并没有下令在集中营中消灭犹太人。</v>
       </c>
       <c r="D241" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="242">
@@ -3787,7 +3787,7 @@
         <v>如果你处在我的境地，你会更加小心。</v>
       </c>
       <c r="D242" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="243">
@@ -3829,7 +3829,7 @@
         <v>如果我睡着了，我会错过电影。</v>
       </c>
       <c r="D245" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="246">
@@ -3843,7 +3843,7 @@
         <v>该设施将无法确定其是否符合规则的要求。</v>
       </c>
       <c r="D246" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="247">
@@ -3857,7 +3857,7 @@
         <v>她看起来就像刚刚拿到工资。</v>
       </c>
       <c r="D247" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="248">
@@ -3871,7 +3871,7 @@
         <v>我不需要这样做。</v>
       </c>
       <c r="D248" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="249">
@@ -3885,7 +3885,7 @@
         <v>总统是一位政治家。</v>
       </c>
       <c r="D249" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="250">
@@ -3899,7 +3899,7 @@
         <v>如果没有明确的威胁，编造一个威胁是个好主意。</v>
       </c>
       <c r="D250" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="251">
@@ -3913,7 +3913,7 @@
         <v>该党将对这个问题表态。</v>
       </c>
       <c r="D251" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="252">
@@ -3927,7 +3927,7 @@
         <v>邮政服务局将在未来至少十年内能够支付其对联邦政府的退休人员健康福利的当前义务。</v>
       </c>
       <c r="D252" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="253">
@@ -3941,7 +3941,7 @@
         <v>危机将继续恶化。</v>
       </c>
       <c r="D253" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="254">
@@ -3955,7 +3955,7 @@
         <v>高水平的债务是一个问题。</v>
       </c>
       <c r="D254" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="255">
@@ -3969,7 +3969,7 @@
         <v>战争还没有结束。</v>
       </c>
       <c r="D255" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="256">
@@ -3983,7 +3983,7 @@
         <v>解决这个问题的最好方法是摆脱所有汽车。</v>
       </c>
       <c r="D256" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="257">
@@ -4011,7 +4011,7 @@
         <v>如果你在排队等候很久，不要去小吃摊。那里通常挤满了吵闹的孩子。</v>
       </c>
       <c r="D258" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="259">
@@ -4025,7 +4025,7 @@
         <v>如果你不去做，你会后悔的。</v>
       </c>
       <c r="D259" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="260">
@@ -4039,7 +4039,7 @@
         <v>明天的科技能够解决今天的问题。</v>
       </c>
       <c r="D260" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="261">
@@ -4053,7 +4053,7 @@
         <v>家庭和学校中进行的社会化和学习过程被中断。</v>
       </c>
       <c r="D261" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="262">
@@ -4067,7 +4067,7 @@
         <v>酒可以制成醋。</v>
       </c>
       <c r="D262" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="263">
@@ -4081,7 +4081,7 @@
         <v>美元将下跌，日元将上涨。</v>
       </c>
       <c r="D263" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="264">
@@ -4095,7 +4095,7 @@
         <v>该修正案将于2017年1月1日生效。</v>
       </c>
       <c r="D264" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="265">
@@ -4109,7 +4109,7 @@
         <v>拯救我们的唯一方法是如果我们能够达到相互理解的领域。</v>
       </c>
       <c r="D265" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="266">
@@ -4123,7 +4123,7 @@
         <v>学区无法发行债券。</v>
       </c>
       <c r="D266" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="267">
@@ -4137,7 +4137,7 @@
         <v>如果劳动成本不调整，劳动生产率是否会调整尚不明确。</v>
       </c>
       <c r="D267" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="268">
@@ -4151,7 +4151,7 @@
         <v>好人不一定是坏人。</v>
       </c>
       <c r="D268" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="269">
@@ -4165,7 +4165,7 @@
         <v>史密斯先生见到了一个鬼魂。</v>
       </c>
       <c r="D269" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="270">
@@ -4179,7 +4179,7 @@
         <v>当前的模型很糟糕。</v>
       </c>
       <c r="D270" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="271">
@@ -4193,7 +4193,7 @@
         <v>在患者中识别暴饮暴食并不完全取决于一次饮酒的数量。</v>
       </c>
       <c r="D271" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="272">
@@ -4207,7 +4207,7 @@
         <v>生产者必须支付最低工资。</v>
       </c>
       <c r="D272" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="273">
@@ -4221,7 +4221,7 @@
         <v>新合同将于2015年1月1日生效。</v>
       </c>
       <c r="D273" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="274">
@@ -4235,7 +4235,7 @@
         <v>我本来会知道怎么做的。</v>
       </c>
       <c r="D274" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="275">
@@ -4249,7 +4249,7 @@
         <v>如果你不是太过于追求完美，你就能制作出一个好的产品。</v>
       </c>
       <c r="D275" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="276">
@@ -4263,7 +4263,7 @@
         <v>金融行业并不重要。</v>
       </c>
       <c r="D276" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="277">
@@ -4277,7 +4277,7 @@
         <v>适当的下一步是联系接收项目以获取转介到接收 II 项目的信息。</v>
       </c>
       <c r="D277" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="278">
@@ -4291,7 +4291,7 @@
         <v>士兵们已经死了。</v>
       </c>
       <c r="D278" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="279">
@@ -4305,7 +4305,7 @@
         <v>我必须找一份工作。</v>
       </c>
       <c r="D279" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="280">
@@ -4319,7 +4319,7 @@
         <v>他说他会和我一起去阿尔伯特音乐厅听音乐会。</v>
       </c>
       <c r="D280" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="281">
@@ -4333,7 +4333,7 @@
         <v>我还没有读过它。</v>
       </c>
       <c r="D281" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="282">
@@ -4347,7 +4347,7 @@
         <v>如果当前利率保持不变，国债市场价格也将保持不变。</v>
       </c>
       <c r="D282" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="283">
@@ -4361,7 +4361,7 @@
         <v>非营利组织没有改变世界的能力。</v>
       </c>
       <c r="D283" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="284">
@@ -4375,7 +4375,7 @@
         <v>如果我有能力帮助的话，我会这样做。</v>
       </c>
       <c r="D284" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="285">
@@ -4389,7 +4389,7 @@
         <v>机器不是工人的老板。</v>
       </c>
       <c r="D285" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="286">
@@ -4403,7 +4403,7 @@
         <v>你确定吗？</v>
       </c>
       <c r="D286" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="287">
@@ -4417,7 +4417,7 @@
         <v>这需要重新评估。</v>
       </c>
       <c r="D287" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="288">
@@ -4431,7 +4431,7 @@
         <v>我觉得你很聪明。</v>
       </c>
       <c r="D288" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="289">
@@ -4445,7 +4445,7 @@
         <v>他无论如何都会回答的。</v>
       </c>
       <c r="D289" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="290">
@@ -4459,7 +4459,7 @@
         <v>他们负担不起去看电影。</v>
       </c>
       <c r="D290" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="291">
@@ -4473,7 +4473,7 @@
         <v>如果你必须争论，就和你的女朋友争论。</v>
       </c>
       <c r="D291" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="292">
@@ -4487,7 +4487,7 @@
         <v>如果我们有一对对立面，我们总是可以得到一个错误的二分法。</v>
       </c>
       <c r="D292" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="293">
@@ -4501,7 +4501,7 @@
         <v>公司将被迫停业。</v>
       </c>
       <c r="D293" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="294">
@@ -4515,7 +4515,7 @@
         <v>这个国家对这个问题没有兴趣，因为媒体决定忽视它。</v>
       </c>
       <c r="D294" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="295">
@@ -4529,7 +4529,7 @@
         <v>这个孩子不是私生子。</v>
       </c>
       <c r="D295" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="296">
@@ -4543,7 +4543,7 @@
         <v>如果新立法通过，将成立一个独立的妇女事务部。</v>
       </c>
       <c r="D296" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="297">
@@ -4557,7 +4557,7 @@
         <v>军队的规模大大缩减。</v>
       </c>
       <c r="D297" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="298">
@@ -4571,7 +4571,7 @@
         <v>如果你不进行修理，你将对所有修理费用负责。</v>
       </c>
       <c r="D298" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="299">
@@ -4585,7 +4585,7 @@
         <v>如果您有投诉，请写信给总统。</v>
       </c>
       <c r="D299" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="300">
@@ -4599,7 +4599,7 @@
         <v>我知道你会告诉我的。</v>
       </c>
       <c r="D300" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="301">
@@ -4613,7 +4613,7 @@
         <v>今天的主厨推荐是一个很好的晚餐地点。</v>
       </c>
       <c r="D301" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="302">
@@ -4627,7 +4627,7 @@
         <v>布鲁克第一次尝试泰国菜。</v>
       </c>
       <c r="D302" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="303">
@@ -4641,7 +4641,7 @@
         <v>P60是来自学校董事会成员给编辑的信，信中重述了案件的经过。</v>
       </c>
       <c r="D303" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="304">
@@ -4655,7 +4655,7 @@
         <v>学校图书馆有年鉴。</v>
       </c>
       <c r="D304" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="305">
@@ -4669,7 +4669,7 @@
         <v>这个故事是由一个人报道的。</v>
       </c>
       <c r="D305" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="306">
@@ -4683,7 +4683,7 @@
         <v>指南不建议人们在中午时分准备咖啡。</v>
       </c>
       <c r="D306" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="307">
@@ -4697,7 +4697,7 @@
         <v>我和杰森相处得不好。</v>
       </c>
       <c r="D307" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="308">
@@ -4711,7 +4711,7 @@
         <v>他们指的是一把小提琴。</v>
       </c>
       <c r="D308" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="309">
@@ -4725,7 +4725,7 @@
         <v>一些物质由于对环境的影响需要被撤出市场。</v>
       </c>
       <c r="D309" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="310">
@@ -4739,7 +4739,7 @@
         <v>委员会正在考虑一项关于风能的提案。</v>
       </c>
       <c r="D310" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="311">
@@ -4753,7 +4753,7 @@
         <v>这个男人鄙视德国。</v>
       </c>
       <c r="D311" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="312">
@@ -4781,7 +4781,7 @@
         <v>马克·卡文迪什退出了环法自行车赛。</v>
       </c>
       <c r="D313" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="314">
@@ -4795,7 +4795,7 @@
         <v>在你说明为什么认为她是你故事的好来源之后，等到采访结束再进行勒索。</v>
       </c>
       <c r="D314" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="315">
@@ -4809,7 +4809,7 @@
         <v>皇家支持者只穿黄色。</v>
       </c>
       <c r="D315" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="316">
@@ -4823,7 +4823,7 @@
         <v>想想一个美好的回忆，这可以帮助你写一封信。</v>
       </c>
       <c r="D316" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="317">
@@ -4837,7 +4837,7 @@
         <v>右箭头指示了正确的方向。</v>
       </c>
       <c r="D317" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="318">
@@ -4851,7 +4851,7 @@
         <v>有些水果最好避免食用。</v>
       </c>
       <c r="D318" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="319">
@@ -4865,7 +4865,7 @@
         <v>Tie Dye在下一个生日时将满十八岁。</v>
       </c>
       <c r="D319" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="320">
@@ -4879,7 +4879,7 @@
         <v>新学生需要有人带他四处参观。</v>
       </c>
       <c r="D320" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="321">
@@ -4893,7 +4893,7 @@
         <v>欧洲人在波斯尼亚是维和人员。</v>
       </c>
       <c r="D321" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="322">
@@ -4907,7 +4907,7 @@
         <v>这匹马需要是一匹驯服的马。</v>
       </c>
       <c r="D322" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="323">
@@ -4921,7 +4921,7 @@
         <v>该过程可用于复制DVD。</v>
       </c>
       <c r="D323" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="324">
@@ -4935,7 +4935,7 @@
         <v>检查员认证了它，但意识到存在问题。</v>
       </c>
       <c r="D324" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="325">
@@ -4963,7 +4963,7 @@
         <v>这是一个二手玩具。</v>
       </c>
       <c r="D326" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="327">
@@ -4977,7 +4977,7 @@
         <v>枪支很贵，警方需要将资金重新分配给他们。</v>
       </c>
       <c r="D327" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="328">
@@ -4991,7 +4991,7 @@
         <v>玛雅讨厌她的学校。</v>
       </c>
       <c r="D328" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="329">
@@ -5005,7 +5005,7 @@
         <v>在这个语境中，最后一句话是讽刺的评论。</v>
       </c>
       <c r="D329" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="330">
@@ -5019,7 +5019,7 @@
         <v>兰迪只喝他购买的饮料的11%。</v>
       </c>
       <c r="D330" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="331">
@@ -5033,7 +5033,7 @@
         <v>请务必先用抗菌肥皂洗手，并用大量清水彻底冲洗干净。</v>
       </c>
       <c r="D331" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="332">
@@ -5047,7 +5047,7 @@
         <v>《地狱之门》在美国发布早于泰国。</v>
       </c>
       <c r="D332" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="333">
@@ -5061,7 +5061,7 @@
         <v>他的办公室多年来一直担任各种隐私规范的监督机构。</v>
       </c>
       <c r="D333" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="334">
@@ -5075,7 +5075,7 @@
         <v>萨拉没有买白菜汁。</v>
       </c>
       <c r="D334" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="335">
@@ -5089,7 +5089,7 @@
         <v>悲惨境地乐队从未想在美国变得受欢迎。</v>
       </c>
       <c r="D335" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="336">
@@ -5103,7 +5103,7 @@
         <v>健康的人从不生病。</v>
       </c>
       <c r="D336" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="337">
@@ -5117,7 +5117,7 @@
         <v>伊桑访问了美洲的邻国。</v>
       </c>
       <c r="D337" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="338">
@@ -5131,7 +5131,7 @@
         <v>预算措施包括已偿还的贷款。</v>
       </c>
       <c r="D338" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="339">
@@ -5145,7 +5145,7 @@
         <v>蒂姆需要新的托盘。</v>
       </c>
       <c r="D339" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="340">
@@ -5159,7 +5159,7 @@
         <v>蒂姆最终在婚礼前因为单身派对抛弃了他的未婚妻。</v>
       </c>
       <c r="D340" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="341">
@@ -5173,7 +5173,7 @@
         <v>枪支法律很重要，但不等于爱孩子。</v>
       </c>
       <c r="D341" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="342">
@@ -5187,7 +5187,7 @@
         <v>隐私专员一直是监督的倡导者。</v>
       </c>
       <c r="D342" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="343">
@@ -5201,7 +5201,7 @@
         <v>史蒂文游泳已经很久了。</v>
       </c>
       <c r="D343" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="344">
@@ -5215,7 +5215,7 @@
         <v>塔斯马尼亚立法委员会希望搬出霍巴特。</v>
       </c>
       <c r="D344" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="345">
@@ -5229,7 +5229,7 @@
         <v>他们支持北方联盟条约。</v>
       </c>
       <c r="D345" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="346">
@@ -5243,7 +5243,7 @@
         <v>喂养新生小狗需要很多用品。</v>
       </c>
       <c r="D346" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="347">
@@ -5257,7 +5257,7 @@
         <v>滑翔伞飞行是露西梦想成真的时刻。</v>
       </c>
       <c r="D347" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="348">
@@ -5271,7 +5271,7 @@
         <v>山姆大叔将他的第一张专辑命名为《山姆大叔》。</v>
       </c>
       <c r="D348" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="349">
@@ -5285,7 +5285,7 @@
         <v>原告反对法官的评论被记录在案。</v>
       </c>
       <c r="D349" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="350">
@@ -5299,7 +5299,7 @@
         <v>瑞巴被抢劫者抢走了她的手表。</v>
       </c>
       <c r="D350" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="351">
@@ -5327,7 +5327,7 @@
         <v>他执导过的影片包括《汉克与寻找幸福》、《意外之喜》和《我们跳舞吗？》。</v>
       </c>
       <c r="D352" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="353">
@@ -5341,7 +5341,7 @@
         <v>这个解决方案并不是基于与哥伦比亚毒品黑帮的积极斗争。</v>
       </c>
       <c r="D353" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="354">
@@ -5369,7 +5369,7 @@
         <v>乔希想念他的家。</v>
       </c>
       <c r="D355" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="356">
@@ -5383,7 +5383,7 @@
         <v>总统发动了一场战争。</v>
       </c>
       <c r="D356" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="357">
@@ -5397,7 +5397,7 @@
         <v>我丈夫说我高尔夫打得不好是对的。</v>
       </c>
       <c r="D357" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="358">
@@ -5411,7 +5411,7 @@
         <v>亚历杭德罗·赫尔西是一位墨西哥制作人。</v>
       </c>
       <c r="D358" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="359">
@@ -5425,7 +5425,7 @@
         <v>他们上午九点半离开了。</v>
       </c>
       <c r="D359" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="360">
@@ -5439,7 +5439,7 @@
         <v>加拿大的保守党希望在下议院讨论可负担住房问题。</v>
       </c>
       <c r="D360" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="361">
@@ -5453,7 +5453,7 @@
         <v>氰化物不是必需的。</v>
       </c>
       <c r="D361" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="362">
@@ -5467,7 +5467,7 @@
         <v>她飞过了河。</v>
       </c>
       <c r="D362" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="363">
@@ -5481,7 +5481,7 @@
         <v>叙述者想知道兰德里先生是否得到了所有信息。</v>
       </c>
       <c r="D363" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="364">
@@ -5495,7 +5495,7 @@
         <v>我希望人类物种发展部长及她的官员们能真正注意到我所说的话。</v>
       </c>
       <c r="D364" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="365">
@@ -5509,7 +5509,7 @@
         <v>跑100米短跑几乎不需要耐力训练。</v>
       </c>
       <c r="D365" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="366">
@@ -5523,7 +5523,7 @@
         <v>艾伦·梅特尔执导过战争电影。</v>
       </c>
       <c r="D366" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="367">
@@ -5537,7 +5537,7 @@
         <v>伊斯兰圣战组织希望释放其领导人，并解除对伊朗的禁运。</v>
       </c>
       <c r="D367" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="368">
@@ -5551,7 +5551,7 @@
         <v>安娜与人互动。</v>
       </c>
       <c r="D368" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="369">
@@ -5565,7 +5565,7 @@
         <v>树倒了。</v>
       </c>
       <c r="D369" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="370">
@@ -5579,7 +5579,7 @@
         <v>劳动立法在众议院取得了进展。</v>
       </c>
       <c r="D370" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="371">
@@ -5593,7 +5593,7 @@
         <v>弗吉尼亚州阿灵顿的44岁凯文·文森特表示，他的妻子购买了阿乐夫品牌的对乙酰氨基酚，他想了解更多关于这个问题的信息。</v>
       </c>
       <c r="D371" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="372">
@@ -5607,7 +5607,7 @@
         <v>红衫军是农村和贫困者的支持者，并支持总理。</v>
       </c>
       <c r="D372" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="373">
@@ -5621,7 +5621,7 @@
         <v>兰迪买了一些伏特加。</v>
       </c>
       <c r="D373" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="374">
@@ -5635,7 +5635,7 @@
         <v>市民们不想要新总统。</v>
       </c>
       <c r="D374" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="375">
@@ -5649,7 +5649,7 @@
         <v>布劳恩·斯特罗曼与布洛克·莱斯纳有问题。</v>
       </c>
       <c r="D375" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="376">
@@ -5663,7 +5663,7 @@
         <v>伊桑吃了意大利菜。</v>
       </c>
       <c r="D376" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="377">
@@ -5677,7 +5677,7 @@
         <v>您的数据计划由您的手机运营商决定。</v>
       </c>
       <c r="D377" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="378">
@@ -5691,7 +5691,7 @@
         <v>州长告诉凯勒布在回家的路上要走靠近路边的一侧。</v>
       </c>
       <c r="D378" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="379">
@@ -5705,7 +5705,7 @@
         <v>鲁弗斯·维恩赖特的《我不知道这是什么》在他的第二张专辑发行后，但在2004年7月27日之前发布。</v>
       </c>
       <c r="D379" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="380">
@@ -5719,7 +5719,7 @@
         <v>在1950年代，美国联邦调查局开始维护一份公众名单，列出其认为的十大通缉恶棍。</v>
       </c>
       <c r="D380" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="381">
@@ -5733,7 +5733,7 @@
         <v>成为某个角色中优秀老板的第二步是对工作及成功所需的内容有出色的理解。</v>
       </c>
       <c r="D381" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="382">
@@ -5747,7 +5747,7 @@
         <v>匿名文本不会透露你的名字。</v>
       </c>
       <c r="D382" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="383">
@@ -5761,7 +5761,7 @@
         <v>缅因州的巴斯和萨加达霍克县由民主党议会领袖玛丽·斯莫尔代表。</v>
       </c>
       <c r="D383" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="384">
@@ -5775,7 +5775,7 @@
         <v>凯特的女儿性格内向。</v>
       </c>
       <c r="D384" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="385">
@@ -5789,7 +5789,7 @@
         <v>Pamunuwa不位于东部省。</v>
       </c>
       <c r="D385" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="386">
@@ -5817,7 +5817,7 @@
         <v>萨米勤奋地练习棒球。</v>
       </c>
       <c r="D387" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="388">
@@ -5831,7 +5831,7 @@
         <v>史蒂文的童年爱好变成了职业。</v>
       </c>
       <c r="D388" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="389">
@@ -5845,7 +5845,7 @@
         <v>政府中的人们相互指责，充满仇恨。</v>
       </c>
       <c r="D389" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="390">
@@ -5859,7 +5859,7 @@
         <v>《女孩想要什么》在比利时获得了银奖认证。</v>
       </c>
       <c r="D390" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="391">
@@ -5873,7 +5873,7 @@
         <v>神经性厌食症被错误地认为是以限制食物为特征的。</v>
       </c>
       <c r="D391" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="392">
@@ -5887,7 +5887,7 @@
         <v>蒂娜·特纳为一部印第安纳·琼斯电影创作了一首歌。</v>
       </c>
       <c r="D392" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="393">
@@ -5901,7 +5901,7 @@
         <v>怀亚特·厄普是一个人类。</v>
       </c>
       <c r="D393" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="394">
@@ -5915,7 +5915,7 @@
         <v>蒂娜·特纳为《黄金眼》创作了一首歌。</v>
       </c>
       <c r="D394" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="395">
@@ -5929,7 +5929,7 @@
         <v>德米·洛瓦托是零食的倡导者。</v>
       </c>
       <c r="D395" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="396">
@@ -5943,7 +5943,7 @@
         <v>DJ Khaled在2008年9月11日之后改了名字。</v>
       </c>
       <c r="D396" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="397">
@@ -5957,7 +5957,7 @@
         <v>芭芭拉·布什创立了芭芭拉·布什儿童读写基金会。</v>
       </c>
       <c r="D397" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="398">
@@ -5971,7 +5971,7 @@
         <v>兰德尔·弗拉格出现在《末日逼近》和《黑暗塔》中。</v>
       </c>
       <c r="D398" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="399">
@@ -5985,7 +5985,7 @@
         <v>《女孩所需》在美国获得了金唱片认证。</v>
       </c>
       <c r="D399" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="400">
@@ -5999,7 +5999,7 @@
         <v>梅根·福克斯与费斯·福特合作过。</v>
       </c>
       <c r="D400" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="401">
@@ -6013,7 +6013,7 @@
         <v>《黑暗骑士》发生在哥谭市。</v>
       </c>
       <c r="D401" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="402">
@@ -6027,7 +6027,7 @@
         <v>《搏击俱乐部》主演是布拉德·皮特。</v>
       </c>
       <c r="D402" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="403">
@@ -6041,7 +6041,7 @@
         <v>每个人都需要一个最好的朋友，来自一段YouTube视频。</v>
       </c>
       <c r="D403" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="404">
@@ -6055,7 +6055,7 @@
         <v>博士独自旅行</v>
       </c>
       <c r="D404" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="405">
@@ -6069,7 +6069,7 @@
         <v>海伦·亨特出演了5部电影，其中海伦·亨特吃了一个汉堡。</v>
       </c>
       <c r="D405" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="406">
@@ -6083,7 +6083,7 @@
         <v>杰夫·贝索斯是Facebook的创始人。</v>
       </c>
       <c r="D406" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="407">
@@ -6097,7 +6097,7 @@
         <v>蒂娜·特纳的专辑《打破所有规则》获得了金唱片认证。</v>
       </c>
       <c r="D407" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="408">
@@ -6111,7 +6111,7 @@
         <v>道克·霍利迪从未在亚特兰大开业。</v>
       </c>
       <c r="D408" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="409">
@@ -6125,7 +6125,7 @@
         <v>心理学是学术领域中的一个学科。</v>
       </c>
       <c r="D409" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="410">
@@ -6139,7 +6139,7 @@
         <v>纳伦德拉·莫迪是印度政治家。</v>
       </c>
       <c r="D410" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="411">
@@ -6153,7 +6153,7 @@
         <v>《神秘博士》由多位演员饰演。</v>
       </c>
       <c r="D411" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="412">
@@ -6167,7 +6167,7 @@
         <v>卡普兰想要实现他的愿景。</v>
       </c>
       <c r="D412" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="413">
@@ -6181,7 +6181,7 @@
         <v>他收到了一个报告，里面展示了他想要的年度数据。</v>
       </c>
       <c r="D413" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="414">
@@ -6195,7 +6195,7 @@
         <v>这些犹太洁食法则使受保护的动物得以繁衍生息。</v>
       </c>
       <c r="D414" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="415">
@@ -6209,7 +6209,7 @@
         <v>阿贝·洛威尔计划利用斯塔尔的质询进行资本化。</v>
       </c>
       <c r="D415" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="416">
@@ -6223,7 +6223,7 @@
         <v>新闻机构需要重组，以消除任何泄漏。</v>
       </c>
       <c r="D416" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="417">
@@ -6237,7 +6237,7 @@
         <v>克莱曼希望别人相信他是有条理的。</v>
       </c>
       <c r="D417" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="418">
@@ -6251,7 +6251,7 @@
         <v>世界将在宏观经济学的良好指导下运转。</v>
       </c>
       <c r="D418" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="419">
@@ -6265,7 +6265,7 @@
         <v>乔伊斯找不到她想要的那一块。</v>
       </c>
       <c r="D419" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="420">
@@ -6279,7 +6279,7 @@
         <v>作者故意让这个问题模糊不清。</v>
       </c>
       <c r="D420" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="421">
@@ -6293,7 +6293,7 @@
         <v>这位女性没有临终愿望。</v>
       </c>
       <c r="D421" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="422">
@@ -6307,7 +6307,7 @@
         <v>尽管在其有前景的开局中寄予了一些厚望，但该品牌一直在稳步下滑。</v>
       </c>
       <c r="D422" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="423">
@@ -6321,7 +6321,7 @@
         <v>所有巴吉犬都有很好的判断力。</v>
       </c>
       <c r="D423" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="424">
@@ -6335,7 +6335,7 @@
         <v>我喜欢所有的马自达汽车。</v>
       </c>
       <c r="D424" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="425">
@@ -6349,7 +6349,7 @@
         <v>他们需要被倾听。</v>
       </c>
       <c r="D425" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="426">
@@ -6363,7 +6363,7 @@
         <v>他们需要知道那个人的名字。</v>
       </c>
       <c r="D426" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="427">
@@ -6377,7 +6377,7 @@
         <v>格林斯潘的声明需要重新表述。</v>
       </c>
       <c r="D427" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="428">
@@ -6391,7 +6391,7 @@
         <v>作者希望里根受到批评。</v>
       </c>
       <c r="D428" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="429">
@@ -6405,7 +6405,7 @@
         <v>这个女人是单身。</v>
       </c>
       <c r="D429" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="430">
@@ -6419,7 +6419,7 @@
         <v>卡茨迫切希望能在《华盛顿邮报》上发表文章。</v>
       </c>
       <c r="D430" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="431">
@@ -6433,7 +6433,7 @@
         <v>微软在其市场中是一个强大的参与者，能够有效解决问题。</v>
       </c>
       <c r="D431" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="432">
@@ -6447,7 +6447,7 @@
         <v>施普林格不受欢迎。</v>
       </c>
       <c r="D432" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="433">
@@ -6461,7 +6461,7 @@
         <v>每个人都应该管好自己的事，不要插手她的感情生活。</v>
       </c>
       <c r="D433" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="434">
@@ -6475,7 +6475,7 @@
         <v>英格利斯修建了一条长长的公路。</v>
       </c>
       <c r="D434" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="435">
@@ -6489,7 +6489,7 @@
         <v>仍然有人想要送礼物。</v>
       </c>
       <c r="D435" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="436">
@@ -6503,7 +6503,7 @@
         <v>士兵们想要帮助她。</v>
       </c>
       <c r="D436" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="437">
@@ -6517,7 +6517,7 @@
         <v>麦凯恩想要提高所有人的税收。</v>
       </c>
       <c r="D437" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="438">
@@ -6531,7 +6531,7 @@
         <v>女主角和她的兄弟们在日本长大。</v>
       </c>
       <c r="D438" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="439">
@@ -6545,7 +6545,7 @@
         <v>假释人员一直遵守法律。</v>
       </c>
       <c r="D439" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="440">
@@ -6559,7 +6559,7 @@
         <v>杰西·文图拉不希望帕特赢得提名。</v>
       </c>
       <c r="D440" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="441">
@@ -6573,7 +6573,7 @@
         <v>新技术将突发新闻投放到报纸中。</v>
       </c>
       <c r="D441" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="442">
@@ -6587,7 +6587,7 @@
         <v>这是一小部分，与所需的相比。</v>
       </c>
       <c r="D442" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="443">
@@ -6601,7 +6601,7 @@
         <v>教堂蜂鸣器的公会需要他的钱。</v>
       </c>
       <c r="D443" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="444">
@@ -6615,7 +6615,7 @@
         <v>共和党人通常在预算赤字时寻求回馈他们贫困的选民。</v>
       </c>
       <c r="D444" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="445">
@@ -6629,7 +6629,7 @@
         <v>PointCast 正在尝试推出其作为公司的第一个软件产品。</v>
       </c>
       <c r="D445" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="446">
@@ -6643,7 +6643,7 @@
         <v>贝特尔海姆专注于作为引导者的重要性。</v>
       </c>
       <c r="D446" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="447">
@@ -6657,7 +6657,7 @@
         <v>今天那些为拯救小说而疯狂的评论家，四十年前却想要扼杀它。</v>
       </c>
       <c r="D447" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="448">
@@ -6671,7 +6671,7 @@
         <v>波洛克的职业生涯很短。</v>
       </c>
       <c r="D448" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="449">
@@ -6685,7 +6685,7 @@
         <v>女人满足男人对速度的需求</v>
       </c>
       <c r="D449" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="450">
@@ -6699,7 +6699,7 @@
         <v>削减社会支付系统给国家领导人带来了压力。</v>
       </c>
       <c r="D450" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="451">
@@ -6713,7 +6713,7 @@
         <v>欧洲政府对回拨服务征收高额税费。</v>
       </c>
       <c r="D451" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="452">

--- a/Annotations/annotations_ZH.xlsx
+++ b/Annotations/annotations_ZH.xlsx
@@ -6727,7 +6727,7 @@
         <v>联邦政府知道灾难资金是非常抢手的。</v>
       </c>
       <c r="D452" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="453">
@@ -6741,7 +6741,7 @@
         <v>我对目前的进展感到非常满意。</v>
       </c>
       <c r="D453" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="454">
@@ -6755,7 +6755,7 @@
         <v>有人想放弃特别检察官。</v>
       </c>
       <c r="D454" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="455">
@@ -6769,7 +6769,7 @@
         <v>我想找到加布里埃尔的火焰；这是我最喜欢的。</v>
       </c>
       <c r="D455" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="456">
@@ -6783,7 +6783,7 @@
         <v>LSC对所提建议的有效性表示怀疑。</v>
       </c>
       <c r="D456" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="457">
@@ -6797,7 +6797,7 @@
         <v>汤米真的很想知道。</v>
       </c>
       <c r="D457" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="458">
@@ -6811,7 +6811,7 @@
         <v>这篇评论将试图反驳干预的理由。</v>
       </c>
       <c r="D458" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="459">
@@ -6825,7 +6825,7 @@
         <v>无法确定该立法是否有效。</v>
       </c>
       <c r="D459" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="460">
@@ -6839,7 +6839,7 @@
         <v>看到罐子里装的东西让他想呕吐。</v>
       </c>
       <c r="D460" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="461">
@@ -6853,7 +6853,7 @@
         <v>她很紧张，尽管她不想这样。</v>
       </c>
       <c r="D461" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="462">
@@ -6867,7 +6867,7 @@
         <v>我儿子真的很想要一只狗。</v>
       </c>
       <c r="D462" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="463">
@@ -6881,7 +6881,7 @@
         <v>随着多个地点的增加，对培训和监督的要求也随之提高。</v>
       </c>
       <c r="D463" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="464">
@@ -6895,7 +6895,7 @@
         <v>虽然他一般喜欢他的环境，但他想尽快离开，以避免秋季的暴雨。</v>
       </c>
       <c r="D464" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="465">
@@ -6909,7 +6909,7 @@
         <v>斯波克试图背叛他的妻子。</v>
       </c>
       <c r="D465" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="466">
@@ -6923,7 +6923,7 @@
         <v>价格需要被限制。</v>
       </c>
       <c r="D466" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="467">
@@ -6937,7 +6937,7 @@
         <v>我丈夫很高兴让我照顾花朵，而他则按照自己喜欢的方式维护草坪。</v>
       </c>
       <c r="D467" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="468">
@@ -6951,7 +6951,7 @@
         <v>他们真的搞砸了我们的家庭聚会。</v>
       </c>
       <c r="D468" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="469">
@@ -6965,7 +6965,7 @@
         <v>我想买一栋有阳台的房子，但我决定买一栋没有阳台的。</v>
       </c>
       <c r="D469" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="470">
@@ -6979,7 +6979,7 @@
         <v>党希望他尽快离开。</v>
       </c>
       <c r="D470" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="471">
@@ -6993,7 +6993,7 @@
         <v>我决定我不需要吃东西。</v>
       </c>
       <c r="D471" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="472">
@@ -7007,7 +7007,7 @@
         <v>Vrenna想知道Kal是否要去。</v>
       </c>
       <c r="D472" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="473">
@@ -7021,7 +7021,7 @@
         <v>在任何情况下，都没有愿意为克林顿说谎的特工。</v>
       </c>
       <c r="D473" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="474">
@@ -7035,7 +7035,7 @@
         <v>我们想给莱温斯基汇款。</v>
       </c>
       <c r="D474" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="475">
@@ -7049,7 +7049,7 @@
         <v>功能需求和倡导需求总是保持一致。</v>
       </c>
       <c r="D475" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="476">
@@ -7063,7 +7063,7 @@
         <v>德鲁不想伤害香农。</v>
       </c>
       <c r="D476" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="477">
@@ -7077,7 +7077,7 @@
         <v>他们真的让家庭团聚的过程变得简单。</v>
       </c>
       <c r="D477" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="478">
@@ -7091,7 +7091,7 @@
         <v>我希望有一天能看到它。</v>
       </c>
       <c r="D478" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="479">
@@ -7105,7 +7105,7 @@
         <v>在这段时间里，布什一家不想和我有任何关系。</v>
       </c>
       <c r="D479" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="480">
@@ -7119,7 +7119,7 @@
         <v>我们需要记住一些想法。</v>
       </c>
       <c r="D480" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="481">
@@ -7133,7 +7133,7 @@
         <v>这位天文学家对人们为什么会想要煤和石油感到困惑，尽管他们已经去过太空，并询问了造成这种困惑的原因。</v>
       </c>
       <c r="D481" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="482">
@@ -7147,7 +7147,7 @@
         <v>GAO和IG之间需要建立稳固的关系。</v>
       </c>
       <c r="D482" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="483">
@@ -7161,7 +7161,7 @@
         <v>感谢你在我试图情绪化时不断提醒我。</v>
       </c>
       <c r="D483" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="484">
@@ -7175,7 +7175,7 @@
         <v>我们想要孩子。</v>
       </c>
       <c r="D484" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="485">
@@ -7189,7 +7189,7 @@
         <v>我们希望通过HRC标志传递一点希望。</v>
       </c>
       <c r="D485" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="486">
@@ -7203,7 +7203,7 @@
         <v>我在接下来的春天彻底铺好了我的车道。</v>
       </c>
       <c r="D486" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="487">
@@ -7217,7 +7217,7 @@
         <v>杰克逊需要帮助。</v>
       </c>
       <c r="D487" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="488">
@@ -7231,7 +7231,7 @@
         <v>第二阶段计划于17世纪末进行。</v>
       </c>
       <c r="D488" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="489">
@@ -7245,7 +7245,7 @@
         <v>我需要离开。</v>
       </c>
       <c r="D489" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="490">
@@ -7259,7 +7259,7 @@
         <v>我是在杂志文章中读到的。</v>
       </c>
       <c r="D490" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="491">
@@ -7273,7 +7273,7 @@
         <v>吉尔德不需要任何借口来写技术文档。</v>
       </c>
       <c r="D491" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="492">
@@ -7287,7 +7287,7 @@
         <v>优秀的领导者能够帮助组织克服对变革的抵制。</v>
       </c>
       <c r="D492" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="493">
@@ -7301,7 +7301,7 @@
         <v>它需要不断上弦，准确度在五分钟以内。</v>
       </c>
       <c r="D493" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="494">
@@ -7315,7 +7315,7 @@
         <v>他们知道知情的力量。</v>
       </c>
       <c r="D494" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="495">
@@ -7329,7 +7329,7 @@
         <v>找到他的办公室在哪里很困难。</v>
       </c>
       <c r="D495" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="496">
@@ -7357,7 +7357,7 @@
         <v>他需要时间。</v>
       </c>
       <c r="D497" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="498">
@@ -7371,7 +7371,7 @@
         <v>居民们希望在早上8点取邮件。</v>
       </c>
       <c r="D498" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="499">
@@ -7385,7 +7385,7 @@
         <v>因为他们是印度教徒，尼赫鲁的国大党由社会主义者领导。</v>
       </c>
       <c r="D499" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="500">
@@ -7399,7 +7399,7 @@
         <v>辛西娅对草过敏，不会碰它。</v>
       </c>
       <c r="D500" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="501">
@@ -7413,7 +7413,7 @@
         <v>轰炸国家会降低你的支持率。</v>
       </c>
       <c r="D501" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="502">
@@ -7427,7 +7427,7 @@
         <v>弗里德伦德-休姆警告说，不要过于努力地表现得正确。</v>
       </c>
       <c r="D502" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="503">
@@ -7441,7 +7441,7 @@
         <v>在苏联，有许多不同的文化试图在一个国家中共存。</v>
       </c>
       <c r="D503" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="504">
@@ -7455,7 +7455,7 @@
         <v>不幸的是，我在家工作时不能随意穿着。</v>
       </c>
       <c r="D504" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="505">
@@ -7469,7 +7469,7 @@
         <v>我希望你能自由地做出你想要的选择。</v>
       </c>
       <c r="D505" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="506">
@@ -7483,7 +7483,7 @@
         <v>不过，你确实需要注意主要的鹅卵石街道。</v>
       </c>
       <c r="D506" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="507">
@@ -7497,7 +7497,7 @@
         <v>我知道巴拿马非常重视毒品问题。</v>
       </c>
       <c r="D507" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="508">
@@ -7511,7 +7511,7 @@
         <v>包含的测验可以用来诊断医疗问题。</v>
       </c>
       <c r="D508" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="509">
@@ -7525,7 +7525,7 @@
         <v>想参与这份兴奋中</v>
       </c>
       <c r="D509" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="510">
@@ -7539,7 +7539,7 @@
         <v>主席希望保持任务的力量。</v>
       </c>
       <c r="D510" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="511">
@@ -7553,7 +7553,7 @@
         <v>伯曼在海洋上航行，进行一场精神之旅。</v>
       </c>
       <c r="D511" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="512">
@@ -7567,7 +7567,7 @@
         <v>我想告诉她不要那样说。</v>
       </c>
       <c r="D512" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="513">
@@ -7581,7 +7581,7 @@
         <v>我会强迫艾米丽按照我想要的方式行事。</v>
       </c>
       <c r="D513" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="514">
@@ -7595,7 +7595,7 @@
         <v>70年代的支持选择者不想与新兴的女性主义运动联系在一起。</v>
       </c>
       <c r="D514" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="515">
@@ -7609,7 +7609,7 @@
         <v>显然，他不需要使用任何方法就能取得成功。</v>
       </c>
       <c r="D515" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="516">
@@ -7623,7 +7623,7 @@
         <v>你需要一副望远镜才能清楚地看到第三层拱门。</v>
       </c>
       <c r="D516" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="517">
@@ -7637,7 +7637,7 @@
         <v>你只是希望他犯了那个罪吗？</v>
       </c>
       <c r="D517" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="518">
@@ -7651,7 +7651,7 @@
         <v>“我不想把食物卖给那些无法欣赏其真正愉悦本质的人，”他回答道。</v>
       </c>
       <c r="D518" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="519">
@@ -7665,7 +7665,7 @@
         <v>东京的重建规划不够周密。</v>
       </c>
       <c r="D519" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="520">
@@ -7679,7 +7679,7 @@
         <v>他们希望我在他们的入口处种植玫瑰。</v>
       </c>
       <c r="D520" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="521">
@@ -7693,7 +7693,7 @@
         <v>第一个网站功能将您重定向到主页。</v>
       </c>
       <c r="D521" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="522">
@@ -7707,7 +7707,7 @@
         <v>瑞尔森认为需要更严格的法律来保护环境。</v>
       </c>
       <c r="D522" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="523">
@@ -7721,7 +7721,7 @@
         <v>他希望生活在贫困中的青少年采取措施，以防止他们生育孩子。</v>
       </c>
       <c r="D523" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="524">
@@ -7735,7 +7735,7 @@
         <v>我正在进行报价，因为我想给我的房子刷漆。</v>
       </c>
       <c r="D524" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="525">
@@ -7749,7 +7749,7 @@
         <v>他们需要额外的收入。</v>
       </c>
       <c r="D525" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="526">
@@ -7763,7 +7763,7 @@
         <v>我做我想做的事。</v>
       </c>
       <c r="D526" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="527">
@@ -7777,7 +7777,7 @@
         <v>我知道你的名字是安东尼奥，不需要再重复了。</v>
       </c>
       <c r="D527" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="528">
@@ -7791,7 +7791,7 @@
         <v>多诺万·奥尔森去年十二月被任命为县监督委员会主席。</v>
       </c>
       <c r="D528" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="529">
@@ -7805,7 +7805,7 @@
         <v>我希望见到真正的布朗先生。</v>
       </c>
       <c r="D529" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="530">
@@ -7819,7 +7819,7 @@
         <v>气温将会下降。</v>
       </c>
       <c r="D530" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="531">
@@ -7833,7 +7833,7 @@
         <v>Fieldstone希望找到一个可行的解决方案来解决止赎问题。</v>
       </c>
       <c r="D531" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="532">
@@ -7847,7 +7847,7 @@
         <v>我们需要重新装饰房子里的多个房间。</v>
       </c>
       <c r="D532" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="533">
@@ -7861,7 +7861,7 @@
         <v>我对电脑更有经验，所以我承担了大部分工作。</v>
       </c>
       <c r="D533" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="534">
@@ -7875,7 +7875,7 @@
         <v>丈夫把钥匙给了她，以便停车Orshe。</v>
       </c>
       <c r="D534" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="535">
@@ -7889,7 +7889,7 @@
         <v>我可以把这些任务推迟到下课后再做。</v>
       </c>
       <c r="D535" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="536">
@@ -7903,7 +7903,7 @@
         <v>北方和南方的贸易区域将不会被创建。</v>
       </c>
       <c r="D536" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="537">
@@ -7917,7 +7917,7 @@
         <v>麦克西姆酒店需要翻新。</v>
       </c>
       <c r="D537" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="538">
@@ -7931,7 +7931,7 @@
         <v>欧佩克对经济感到担忧。</v>
       </c>
       <c r="D538" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="539">
@@ -7945,7 +7945,7 @@
         <v>参议院永远不会对这项法案采取行动。</v>
       </c>
       <c r="D539" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="540">
@@ -7959,7 +7959,7 @@
         <v>政府的目标是创造满足消费者需求的新产品和服务。</v>
       </c>
       <c r="D540" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="541">
@@ -7973,7 +7973,7 @@
         <v>他们想强调反恐战争的重要性。</v>
       </c>
       <c r="D541" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="542">
@@ -7987,7 +7987,7 @@
         <v>我甚至不想要一个伴娘。</v>
       </c>
       <c r="D542" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="543">
@@ -8001,7 +8001,7 @@
         <v>这场战争的经济后果是巨大的。</v>
       </c>
       <c r="D543" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="544">
@@ -8015,7 +8015,7 @@
         <v>她不想去美国，但她害怕留在自己的国家。</v>
       </c>
       <c r="D544" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="545">
@@ -8029,7 +8029,7 @@
         <v>你试着想出该做什么。</v>
       </c>
       <c r="D545" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="546">
@@ -8043,7 +8043,7 @@
         <v>自由的代价是做你想做的事情的自由。</v>
       </c>
       <c r="D546" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="547">
@@ -8057,7 +8057,7 @@
         <v>你可以做任何你想做的事情。</v>
       </c>
       <c r="D547" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="548">
@@ -8071,7 +8071,7 @@
         <v>他想获取信息。</v>
       </c>
       <c r="D548" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="549">
@@ -8085,7 +8085,7 @@
         <v>让学校董事会帮助我们是个好主意。</v>
       </c>
       <c r="D549" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="550">
@@ -8099,7 +8099,7 @@
         <v>对话的主题是记者感兴趣的内容。</v>
       </c>
       <c r="D550" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="551">
@@ -8113,7 +8113,7 @@
         <v>这部小说讲述了一个在自己家中不被需要的女人。</v>
       </c>
       <c r="D551" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="552">
@@ -8127,7 +8127,7 @@
         <v>学校正在建造一个新的礼堂。</v>
       </c>
       <c r="D552" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="553">
@@ -8141,7 +8141,7 @@
         <v>受害者不想报案。</v>
       </c>
       <c r="D553" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="554">
@@ -8155,7 +8155,7 @@
         <v>政府想要建立一个医疗保健系统。</v>
       </c>
       <c r="D554" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="555">
@@ -8169,7 +8169,7 @@
         <v>我们知道如何给孩子们用药吗？</v>
       </c>
       <c r="D555" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="556">
@@ -8183,7 +8183,7 @@
         <v>他们有机会做任何他们想做的事情。</v>
       </c>
       <c r="D556" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="557">
@@ -8197,7 +8197,7 @@
         <v>律师有很好的机会帮助贫困人群。</v>
       </c>
       <c r="D557" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="558">
@@ -8211,7 +8211,7 @@
         <v>1992年的《联邦能源政策法》在2005年被废除。</v>
       </c>
       <c r="D558" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="559">
@@ -8225,7 +8225,7 @@
         <v>你在这里。</v>
       </c>
       <c r="D559" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="560">
@@ -8239,7 +8239,7 @@
         <v>零售服务需要合同。</v>
       </c>
       <c r="D560" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="561">
@@ -8253,7 +8253,7 @@
         <v>诺尔特说他从来不想成为一名律师。</v>
       </c>
       <c r="D561" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="562">
@@ -8267,7 +8267,7 @@
         <v>这个州在出售。</v>
       </c>
       <c r="D562" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="563">
@@ -8281,7 +8281,7 @@
         <v>科学家想知道政策制定者在做什么。</v>
       </c>
       <c r="D563" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="564">
@@ -8295,7 +8295,7 @@
         <v>利益相关者可以参与规划过程。</v>
       </c>
       <c r="D564" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="565">
@@ -8309,7 +8309,7 @@
         <v>她情绪的变化是由于她的朋友。</v>
       </c>
       <c r="D565" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="566">
@@ -8323,7 +8323,7 @@
         <v>各政党在是否需要单一支付者医疗保健系统上存在显著分歧。</v>
       </c>
       <c r="D566" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="567">
@@ -8337,7 +8337,7 @@
         <v>你有一个真正的问题。</v>
       </c>
       <c r="D567" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="568">
@@ -8351,7 +8351,7 @@
         <v>玩一个有0和00的轮盘。</v>
       </c>
       <c r="D568" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="569">
@@ -8365,7 +8365,7 @@
         <v>我不能告诉你我做了什么。</v>
       </c>
       <c r="D569" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="570">
@@ -8379,7 +8379,7 @@
         <v>这个女人不知道她想要什么。</v>
       </c>
       <c r="D570" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="571">
@@ -8393,7 +8393,7 @@
         <v>他总是想要是对的。</v>
       </c>
       <c r="D571" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="572">
@@ -8407,7 +8407,7 @@
         <v>新的程序是解决这个问题所必需的。</v>
       </c>
       <c r="D572" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="573">
@@ -8421,7 +8421,7 @@
         <v>你想留下来吗？</v>
       </c>
       <c r="D573" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="574">
@@ -8435,7 +8435,7 @@
         <v>需要警力来使法律发挥作用。</v>
       </c>
       <c r="D574" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="575">
@@ -8449,7 +8449,7 @@
         <v>政府没有做人民想要的事情。</v>
       </c>
       <c r="D575" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="576">
@@ -8463,7 +8463,7 @@
         <v>该地区将吸引希望前来的人们。</v>
       </c>
       <c r="D576" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="577">
@@ -8477,7 +8477,7 @@
         <v>他正在努力变得富有。</v>
       </c>
       <c r="D577" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="578">
@@ -8491,7 +8491,7 @@
         <v>他不打算发动战争。</v>
       </c>
       <c r="D578" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="579">
@@ -8505,7 +8505,7 @@
         <v>利文斯顿博士不喜欢他。</v>
       </c>
       <c r="D579" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="580">
@@ -8519,7 +8519,7 @@
         <v>需要一个新的倡议。</v>
       </c>
       <c r="D580" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="581">
@@ -8533,7 +8533,7 @@
         <v>你需要知道球员的名字。</v>
       </c>
       <c r="D581" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="582">
@@ -8547,7 +8547,7 @@
         <v>人民需要接受良好的教育。</v>
       </c>
       <c r="D582" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="583">
@@ -8561,7 +8561,7 @@
         <v>我们需要考虑系统其他组件的成本。</v>
       </c>
       <c r="D583" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="584">
@@ -8575,7 +8575,7 @@
         <v>他已经下定决心要做什么。</v>
       </c>
       <c r="D584" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="585">
@@ -8589,7 +8589,7 @@
         <v>政府需要对经济采取措施。</v>
       </c>
       <c r="D585" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="586">
@@ -8603,7 +8603,7 @@
         <v>他是一个非常有道德的人。</v>
       </c>
       <c r="D586" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="587">
@@ -8617,7 +8617,7 @@
         <v>我想负责运营。</v>
       </c>
       <c r="D587" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="588">
@@ -8631,7 +8631,7 @@
         <v>美国政府希望允许信息自由流动。</v>
       </c>
       <c r="D588" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="589">
@@ -8645,7 +8645,7 @@
         <v>您不需要许可证就可以在湖上活动。</v>
       </c>
       <c r="D589" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="590">
@@ -8659,7 +8659,7 @@
         <v>有必要对该主题的文献进行全面审查。</v>
       </c>
       <c r="D590" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="591">
@@ -8673,7 +8673,7 @@
         <v>我不想去。</v>
       </c>
       <c r="D591" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="592">
@@ -8687,7 +8687,7 @@
         <v>多样化能源供应对能源安全至关重要。</v>
       </c>
       <c r="D592" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="593">
@@ -8701,7 +8701,7 @@
         <v>佩吉小姐想说约翰很幸运。</v>
       </c>
       <c r="D593" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="594">
@@ -8715,7 +8715,7 @@
         <v>当地学校董事会的负责人可以做他想做的事情。</v>
       </c>
       <c r="D594" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="595">
@@ -8743,7 +8743,7 @@
         <v>多斯拉基人想要入侵卡斯城。</v>
       </c>
       <c r="D596" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="597">
@@ -8771,7 +8771,7 @@
         <v>新团队致力于教练所尝试的目标。</v>
       </c>
       <c r="D598" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="599">
@@ -8785,7 +8785,7 @@
         <v>当我不那么紧张时，我对她更加坦诚。</v>
       </c>
       <c r="D599" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="600">
@@ -8799,7 +8799,7 @@
         <v>组织需要变革。</v>
       </c>
       <c r="D600" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="601">
@@ -8813,7 +8813,7 @@
         <v>这个测试不可靠。</v>
       </c>
       <c r="D601" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="602">

--- a/Annotations/annotations_ZH.xlsx
+++ b/Annotations/annotations_ZH.xlsx
@@ -8827,7 +8827,7 @@
         <v>又有更多的法裔加拿大人从穆雷鱼屋爬了下来。</v>
       </c>
       <c r="D602" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="603">
@@ -8841,7 +8841,7 @@
         <v>在公共场合接吻需要获得监护人的同意。</v>
       </c>
       <c r="D603" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="604">
@@ -8855,7 +8855,7 @@
         <v>安德烈亚·冯·哈布斯堡是她家里最年长的孩子。</v>
       </c>
       <c r="D604" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="605">
@@ -8869,7 +8869,7 @@
         <v>国家公园信托已在超过20个高优先级地点挂牌出售土地。</v>
       </c>
       <c r="D605" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="606">
@@ -8883,7 +8883,7 @@
         <v>生态瓶必须由塑料或玻璃制成。</v>
       </c>
       <c r="D606" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="607">
@@ -8897,7 +8897,7 @@
         <v>用于防止河岸侵蚀的材料是不可生物降解的。</v>
       </c>
       <c r="D607" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="608">
@@ -8911,7 +8911,7 @@
         <v>唐纳德·康罗伊去世，享年67岁。</v>
       </c>
       <c r="D608" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="609">
@@ -8925,7 +8925,7 @@
         <v>除了与美国另类摇滚乐队10,000 Maniacs合作编曲外，玛丽·拉姆齐还应被视为民谣摇滚二人组约翰与玛丽的成员。</v>
       </c>
       <c r="D609" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="610">
@@ -8939,7 +8939,7 @@
         <v>这段文字已完成。</v>
       </c>
       <c r="D610" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="611">
@@ -8953,7 +8953,7 @@
         <v>瓦尔德兹要求你坐直。</v>
       </c>
       <c r="D611" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="612">
@@ -8967,7 +8967,7 @@
         <v>发言人正在担任第二个任期。</v>
       </c>
       <c r="D612" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="613">
@@ -8981,7 +8981,7 @@
         <v>珍妮特是一个叔叔。</v>
       </c>
       <c r="D613" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="614">
@@ -8995,7 +8995,7 @@
         <v>阿比亚州的州长也是总统。</v>
       </c>
       <c r="D614" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="615">
@@ -9009,7 +9009,7 @@
         <v>沃尔特·穆雷说这是一次愚蠢的攻击。</v>
       </c>
       <c r="D615" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="616">
@@ -9023,7 +9023,7 @@
         <v>无限海洋保险仅适用于商业船舶，不对个人提供。</v>
       </c>
       <c r="D616" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="617">
@@ -9037,7 +9037,7 @@
         <v>康斯坦斯对谈话或主题没有表现出兴趣。</v>
       </c>
       <c r="D617" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="618">
@@ -9051,7 +9051,7 @@
         <v>肠易激综合症患者应只饮用水。</v>
       </c>
       <c r="D618" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="619">
@@ -9065,7 +9065,7 @@
         <v>《新的一天》是牙买加作家V.S.里德于1949年出版的书籍。它已经超过46年了。</v>
       </c>
       <c r="D619" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="620">
@@ -9079,7 +9079,7 @@
         <v>对该条约的投票年龄在25到30岁之间。</v>
       </c>
       <c r="D620" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="621">
@@ -9093,7 +9093,7 @@
         <v>专辑以D开头。</v>
       </c>
       <c r="D621" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="622">
@@ -9121,7 +9121,7 @@
         <v>卡内洛·阿尔瓦雷斯 vs. 胡里奥·塞萨尔·查韦斯 Jr. 的比赛是在2016年之后举行的。</v>
       </c>
       <c r="D623" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="624">
@@ -9135,7 +9135,7 @@
         <v>这个护发产品不便宜。</v>
       </c>
       <c r="D624" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="625">
@@ -9149,7 +9149,7 @@
         <v>皮尔斯因自然原因去世。</v>
       </c>
       <c r="D625" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="626">
@@ -9163,7 +9163,7 @@
         <v>皮肤癌与臭氧层相关。</v>
       </c>
       <c r="D626" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="627">
@@ -9177,7 +9177,7 @@
         <v>皮肤填充剂感染可能伴随炎症。</v>
       </c>
       <c r="D627" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="628">
@@ -9191,7 +9191,7 @@
         <v>Big Data是Joywave创建的一个项目。</v>
       </c>
       <c r="D628" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="629">
@@ -9205,7 +9205,7 @@
         <v>要通过手术治疗肌肉骨骼疼痛，首先要让肌肉休息。</v>
       </c>
       <c r="D629" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="630">
@@ -9233,7 +9233,7 @@
         <v>手术由外科医生进行。</v>
       </c>
       <c r="D631" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="632">
@@ -9247,7 +9247,7 @@
         <v>大多数人都没有听说过这首歌《哦，我的》。</v>
       </c>
       <c r="D632" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="633">
@@ -9261,7 +9261,7 @@
         <v>布雷耶法官是一位出版商。</v>
       </c>
       <c r="D633" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="634">
@@ -9275,7 +9275,7 @@
         <v>市和市镇是同一个意思。</v>
       </c>
       <c r="D634" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="635">
@@ -9289,7 +9289,7 @@
         <v>凯特·莫斯推出了自己的护发产品系列。</v>
       </c>
       <c r="D635" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="636">
@@ -9303,7 +9303,7 @@
         <v>这个系列讲述了一位名叫杰基·埃文斯的退休爵士乐音乐家的故事。</v>
       </c>
       <c r="D636" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="637">
@@ -9317,7 +9317,7 @@
         <v>威廉·托马斯·哈里斯是一名加拿大投手，为杜盖维尔队左手击球。</v>
       </c>
       <c r="D637" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="638">
@@ -9331,7 +9331,7 @@
         <v>蛋糕上应该加上糖珠。</v>
       </c>
       <c r="D638" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="639">
@@ -9345,7 +9345,7 @@
         <v>蓝岭公园大道位于北卡罗来纳州和弗吉尼亚州。</v>
       </c>
       <c r="D639" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="640">
@@ -9359,7 +9359,7 @@
         <v>Gent殡仪馆对约翰的死亡负有责任。</v>
       </c>
       <c r="D640" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="641">
@@ -9373,7 +9373,7 @@
         <v>罢工将导致交货延迟。</v>
       </c>
       <c r="D641" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="642">
@@ -9387,7 +9387,7 @@
         <v>该小组将在1999年春季进行4次旅行。</v>
       </c>
       <c r="D642" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="643">
@@ -9415,7 +9415,7 @@
         <v>有人将会讲述唐纳德·里克尔斯的生活故事。</v>
       </c>
       <c r="D644" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="645">
@@ -9429,7 +9429,7 @@
         <v>阿德尔菲亚不是美国第九大有线电视服务提供商，拥有近500万用户。</v>
       </c>
       <c r="D645" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="646">
@@ -9457,7 +9457,7 @@
         <v>伊尔莎·冯·格拉茨在现实生活中是一位倡导者。</v>
       </c>
       <c r="D647" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="648">
@@ -9471,7 +9471,7 @@
         <v>麦基利斯的裁决损害了他们的声誉。</v>
       </c>
       <c r="D648" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="649">
@@ -9485,7 +9485,7 @@
         <v>您应该使用罗马生菜来炖煮。</v>
       </c>
       <c r="D649" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="650">
@@ -9499,7 +9499,7 @@
         <v>丹尼通过在自杀预防热线志愿服务，帮助某人做出了不同的选择。</v>
       </c>
       <c r="D650" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="651">
@@ -9513,7 +9513,7 @@
         <v>大学橄榄球全明星赛的球员参加东西方圣殿赛。</v>
       </c>
       <c r="D651" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="652">
@@ -9527,7 +9527,7 @@
         <v>托马斯·瑞安在2008年时52岁。</v>
       </c>
       <c r="D652" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="653">
@@ -9541,7 +9541,7 @@
         <v>丹尼知道这可能有多困难。</v>
       </c>
       <c r="D653" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="654">
@@ -9555,7 +9555,7 @@
         <v>当局并没有得出这是一起谋杀的结论。</v>
       </c>
       <c r="D654" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="655">
@@ -9569,7 +9569,7 @@
         <v>亨利在发明这台机器后去世了7年。</v>
       </c>
       <c r="D655" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="656">
@@ -9583,7 +9583,7 @@
         <v>塞尔玛·戴蒙去世，享年60岁。</v>
       </c>
       <c r="D656" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="657">
@@ -9597,7 +9597,7 @@
         <v>我的家乡省是萨斯夸奇。</v>
       </c>
       <c r="D657" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="658">
@@ -9611,7 +9611,7 @@
         <v>俄罗斯倾听美国。</v>
       </c>
       <c r="D658" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="659">
@@ -9625,7 +9625,7 @@
         <v>史蒂文·切兰德在国家运输安全委员会工作。</v>
       </c>
       <c r="D659" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="660">
@@ -9639,7 +9639,7 @@
         <v>全明星赛在大学橄榄球季后赛之后进行。</v>
       </c>
       <c r="D660" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="661">
@@ -9653,7 +9653,7 @@
         <v>教育系统存在严重缺陷，任何孩子都不应被落下。</v>
       </c>
       <c r="D661" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="662">
@@ -9667,7 +9667,7 @@
         <v>婴儿潮一代是房价飙升的罪魁祸首。</v>
       </c>
       <c r="D662" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="663">
@@ -9681,7 +9681,7 @@
         <v>汉克两天前做了一个补牙。</v>
       </c>
       <c r="D663" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="664">
@@ -9695,7 +9695,7 @@
         <v>坦帕队在1991年的选拔过程中在第四轮选中了埃里克森。</v>
       </c>
       <c r="D664" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="665">
@@ -9709,7 +9709,7 @@
         <v>维塔是维克塔的儿子，他喜欢听琵琶。</v>
       </c>
       <c r="D665" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="666">
@@ -9723,7 +9723,7 @@
         <v>水管破裂本可以避免。</v>
       </c>
       <c r="D666" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="667">
@@ -9737,7 +9737,7 @@
         <v>五个朋友都是女性。</v>
       </c>
       <c r="D667" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="668">
@@ -9751,7 +9751,7 @@
         <v>科塔·拉马克里希纳·卡兰特出生于四月之后。</v>
       </c>
       <c r="D668" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="669">
@@ -9765,7 +9765,7 @@
         <v>我的同事也提到我们可以接受一些边缘上不错的提议修改。</v>
       </c>
       <c r="D669" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="670">
@@ -9779,7 +9779,7 @@
         <v>蓝岭公园大道已被出售给私人。</v>
       </c>
       <c r="D670" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="671">
@@ -9793,7 +9793,7 @@
         <v>说话者知道萨拉眼睛的颜色。</v>
       </c>
       <c r="D671" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="672">
@@ -9807,7 +9807,7 @@
         <v>私人团体有意从国家公园信托基金购买土地。</v>
       </c>
       <c r="D672" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="673">
@@ -9821,7 +9821,7 @@
         <v>曼森将不会参加第74场比赛。</v>
       </c>
       <c r="D673" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="674">
@@ -9835,7 +9835,7 @@
         <v>ABC播出了《迷失》至少六季。</v>
       </c>
       <c r="D674" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="675">
@@ -9849,7 +9849,7 @@
         <v>触发食物对于了解和避免肠易激综合症（IBS）和胃食管反流病（GERD）都至关重要，因为这两种情况相似。</v>
       </c>
       <c r="D675" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="676">
@@ -9863,7 +9863,7 @@
         <v>艾拉·海登的第一部电影角色是在1987年。</v>
       </c>
       <c r="D676" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="677">
@@ -9877,7 +9877,7 @@
         <v>佛罗里达的房地产经纪人不能有不当行为，但在代表客户时可能会表现不佳。</v>
       </c>
       <c r="D677" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="678">
@@ -9891,7 +9891,7 @@
         <v>科学顾问委员会正在接受审计。</v>
       </c>
       <c r="D678" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="679">
@@ -9905,7 +9905,7 @@
         <v>虫子会感染狗粪。</v>
       </c>
       <c r="D679" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="680">
@@ -9919,7 +9919,7 @@
         <v>拉胡尔·甘地真的很欣赏纳伦德拉·莫迪。</v>
       </c>
       <c r="D680" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="681">
@@ -9933,7 +9933,7 @@
         <v>库珀-弗罗斯特-奥斯丁之家在五月初提供私人导览。</v>
       </c>
       <c r="D681" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="682">
@@ -9947,7 +9947,7 @@
         <v>她在上午十点左右到达。</v>
       </c>
       <c r="D682" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="683">
@@ -9961,7 +9961,7 @@
         <v>堕落轴心是一个韩国流行音乐组合。</v>
       </c>
       <c r="D683" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="684">
@@ -9975,7 +9975,7 @@
         <v>大主教应该和教会的其他成员一样对待。</v>
       </c>
       <c r="D684" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="685">
@@ -9989,7 +9989,7 @@
         <v>《美食总动员》可以在车里播放。</v>
       </c>
       <c r="D685" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="686">
@@ -10003,7 +10003,7 @@
         <v>他们回来时都很害怕，担心所有孩子都会生病。</v>
       </c>
       <c r="D686" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="687">
@@ -10017,7 +10017,7 @@
         <v>诗歌必须有韵律。</v>
       </c>
       <c r="D687" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="688">
@@ -10031,7 +10031,7 @@
         <v>伊桑本可以在同一个花园里种植这些草药。</v>
       </c>
       <c r="D688" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="689">
@@ -10045,7 +10045,7 @@
         <v>美联社撰写了这一公告。</v>
       </c>
       <c r="D689" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="690">
@@ -10059,7 +10059,7 @@
         <v>奥逊·威尔斯是一位制片人。</v>
       </c>
       <c r="D690" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="691">
@@ -10073,7 +10073,7 @@
         <v>乔伊·格雷塞法是一名计算机工程师。</v>
       </c>
       <c r="D691" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="692">
@@ -10087,7 +10087,7 @@
         <v>Radiohead 已经发行了三张专辑。</v>
       </c>
       <c r="D692" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="693">
@@ -10101,7 +10101,7 @@
         <v>毒液通常与蜘蛛侠有关。</v>
       </c>
       <c r="D693" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="694">
@@ -10115,7 +10115,7 @@
         <v>玛丽莲·伯恩斯是一名击剑运动员。</v>
       </c>
       <c r="D694" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="695">
@@ -10129,7 +10129,7 @@
         <v>吉姆·汉森是一位歌手。</v>
       </c>
       <c r="D695" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="696">
@@ -10143,7 +10143,7 @@
         <v>卡兰·约翰尔是一个总统。</v>
       </c>
       <c r="D696" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="697">
@@ -10157,7 +10157,7 @@
         <v>奥逊·威尔斯是一位戏剧演员。</v>
       </c>
       <c r="D697" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="698">
@@ -10171,7 +10171,7 @@
         <v>克林特·伊斯特伍德演奏音乐。</v>
       </c>
       <c r="D698" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="699">
@@ -10185,7 +10185,7 @@
         <v>维多利亚女王是一个国家的女王。</v>
       </c>
       <c r="D699" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="700">
@@ -10199,7 +10199,7 @@
         <v>《温暖的皮革》是由一位女性创作的。</v>
       </c>
       <c r="D700" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="701">
@@ -10213,7 +10213,7 @@
         <v>《X战警：逆转未来》是在2010年之后上映的。</v>
       </c>
       <c r="D701" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="702">
@@ -10227,7 +10227,7 @@
         <v>乔丹·奈特是一位电影演员。</v>
       </c>
       <c r="D702" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="703">
@@ -10241,7 +10241,7 @@
         <v>明尼苏达在法国。</v>
       </c>
       <c r="D703" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="704">
@@ -10255,7 +10255,7 @@
         <v>亨廷顿舞蹈症是一种可能遗传的疾病。</v>
       </c>
       <c r="D704" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="705">
@@ -10269,7 +10269,7 @@
         <v>苏·西尔维斯特由男性演员独家饰演。</v>
       </c>
       <c r="D705" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="706">
@@ -10283,7 +10283,7 @@
         <v>琼·克劳馥开始她的职业生涯作为一名演员。</v>
       </c>
       <c r="D706" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="707">
@@ -10297,7 +10297,7 @@
         <v>莱昂纳多·达·芬奇正在与历史上最伟大的画家之一约会。</v>
       </c>
       <c r="D707" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="708">
@@ -10311,7 +10311,7 @@
         <v>弗雷德·特朗普在1918年12月时十三岁。</v>
       </c>
       <c r="D708" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="709">
@@ -10325,7 +10325,7 @@
         <v>索非亚·科波拉是一种起泡酒。</v>
       </c>
       <c r="D709" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="710">
@@ -10339,7 +10339,7 @@
         <v>《X战警》（电影）有一位美国演员和歌手，名叫伊恩·麦凯伦。</v>
       </c>
       <c r="D710" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="711">
@@ -10353,7 +10353,7 @@
         <v>纽卡斯尔联足球俱乐部最成功的时期结束于1910年5月。</v>
       </c>
       <c r="D711" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="712">
@@ -10367,7 +10367,7 @@
         <v>莱昂纳多·达·芬奇研究了解剖学。</v>
       </c>
       <c r="D712" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="713">
@@ -10381,7 +10381,7 @@
         <v>乔伊·格雷塞法来自一个由联邦组成的共和国，基于宪法。</v>
       </c>
       <c r="D713" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="714">
@@ -10395,7 +10395,7 @@
         <v>《欢乐合唱团》是一部恐怖喜剧。</v>
       </c>
       <c r="D714" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="715">
@@ -10409,7 +10409,7 @@
         <v>《黑名单》首集的导演出生于肯尼迪政府时期。</v>
       </c>
       <c r="D715" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="716">
@@ -10423,7 +10423,7 @@
         <v>罗曼·雷恩斯是一名园丁。</v>
       </c>
       <c r="D716" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="717">
@@ -10437,7 +10437,7 @@
         <v>泰德·肯尼迪是美国参议员。</v>
       </c>
       <c r="D717" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="718">
@@ -10451,7 +10451,7 @@
         <v>《超自然》是一部系列剧。</v>
       </c>
       <c r="D718" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="719">
@@ -10465,7 +10465,7 @@
         <v>第十二任博士在一部英国电视节目中。</v>
       </c>
       <c r="D719" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="720">
@@ -10479,7 +10479,7 @@
         <v>杰克·帕尔在21世纪的某个日期去世。</v>
       </c>
       <c r="D720" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="721">
@@ -10493,7 +10493,7 @@
         <v>《猩球崛起》在自由女神像周围的拍摄镜头。</v>
       </c>
       <c r="D721" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="722">
@@ -10507,7 +10507,7 @@
         <v>《One More Light》通过CBS发行。</v>
       </c>
       <c r="D722" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="723">
@@ -10521,7 +10521,7 @@
         <v>《温特沃斯》是电视上的一集。</v>
       </c>
       <c r="D723" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="724">
@@ -10689,7 +10689,7 @@
         <v>《客人》主演了美国电影演员。</v>
       </c>
       <c r="D735" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="736">
@@ -10703,7 +10703,7 @@
         <v>蒂莫西·奥利芬特是一只动物。</v>
       </c>
       <c r="D736" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="737">
@@ -10717,7 +10717,7 @@
         <v>弗兰克·西纳特拉的中间名是山姆。</v>
       </c>
       <c r="D737" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="738">
@@ -10731,7 +10731,7 @@
         <v>赛奇·斯塔隆是一位父亲。</v>
       </c>
       <c r="D738" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="739">
@@ -10745,7 +10745,7 @@
         <v>毛泽东是俄罗斯人。</v>
       </c>
       <c r="D739" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="740">
@@ -10759,7 +10759,7 @@
         <v>李哈维·奥斯瓦尔德刺杀了美国第35任总统。</v>
       </c>
       <c r="D740" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="741">
@@ -10773,7 +10773,7 @@
         <v>加布里埃·希迪贝是美国公民。</v>
       </c>
       <c r="D741" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="742">
@@ -10787,7 +10787,7 @@
         <v>《欢乐合唱团》是一部电影。</v>
       </c>
       <c r="D742" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="743">
@@ -10801,7 +10801,7 @@
         <v>托尼·布莱尔是一名演员。</v>
       </c>
       <c r="D743" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="744">
@@ -10815,7 +10815,7 @@
         <v>安德erson·库珀是一个人。</v>
       </c>
       <c r="D744" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="745">
@@ -10829,7 +10829,7 @@
         <v>希瑟·沃森是一位母亲。</v>
       </c>
       <c r="D745" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="746">
@@ -10843,7 +10843,7 @@
         <v>乔治·克鲁尼是一名漫画家。</v>
       </c>
       <c r="D746" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="747">
@@ -10857,7 +10857,7 @@
         <v>艾薇儿·拉维尼是一位音乐家。</v>
       </c>
       <c r="D747" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="748">
@@ -10871,7 +10871,7 @@
         <v>埃米利奥·艾斯特维兹出生在一个马槽里。</v>
       </c>
       <c r="D748" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="749">
@@ -10885,7 +10885,7 @@
         <v>米兰达·可儿是一位加拿大维多利亚的秘密模特。</v>
       </c>
       <c r="D749" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="750">
@@ -10913,7 +10913,7 @@
         <v>莫妮卡·塞莱斯打网球。</v>
       </c>
       <c r="D751" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="752">

--- a/Annotations/annotations_ZH.xlsx
+++ b/Annotations/annotations_ZH.xlsx
@@ -10927,7 +10927,7 @@
         <v>《可怕的便士》始于21世纪。</v>
       </c>
       <c r="D752" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="753">
@@ -10941,7 +10941,7 @@
         <v>道格·琼斯在电影行业工作。</v>
       </c>
       <c r="D753" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="754">
@@ -10955,7 +10955,7 @@
         <v>《温暖的皮革》是由一位出生于牙买加的歌手演唱的，发行于1980年。</v>
       </c>
       <c r="D754" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="755">
@@ -10969,7 +10969,7 @@
         <v>《欢乐合唱团》是一部电视剧。</v>
       </c>
       <c r="D755" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="756">
@@ -10983,7 +10983,7 @@
         <v>埃斯特拉·沃伦是双子座。</v>
       </c>
       <c r="D756" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="757">
@@ -10997,7 +10997,7 @@
         <v>《绝望的主妇》是一部电视剧。</v>
       </c>
       <c r="D757" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="758">
@@ -11011,7 +11011,7 @@
         <v>埃米纳姆是双子座。</v>
       </c>
       <c r="D758" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="759">
@@ -11025,7 +11025,7 @@
         <v>托马斯·德西蒙在海地失踪。</v>
       </c>
       <c r="D759" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="760">
@@ -11039,7 +11039,7 @@
         <v>威廉·R·托尔伯特二世被杀。</v>
       </c>
       <c r="D760" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="761">
@@ -11053,7 +11053,7 @@
         <v>米兰达·科斯格罗夫是一名赛车手。</v>
       </c>
       <c r="D761" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="762">
@@ -11067,7 +11067,7 @@
         <v>温诺娜·贾德参与水中健身。</v>
       </c>
       <c r="D762" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="763">
@@ -11081,7 +11081,7 @@
         <v>特雷·库尔是绿日乐队的鼓手。</v>
       </c>
       <c r="D763" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="764">
@@ -11095,7 +11095,7 @@
         <v>大卫·施维默于2004年10月8日结束了在《老友记》中的演出。</v>
       </c>
       <c r="D764" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="765">
@@ -11109,7 +11109,7 @@
         <v>根纳季·戈洛夫金是一名击剑运动员。</v>
       </c>
       <c r="D765" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="766">
@@ -11123,7 +11123,7 @@
         <v>丹尼斯·霍普是一位人物。</v>
       </c>
       <c r="D766" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="767">
@@ -11137,7 +11137,7 @@
         <v>塞奇·斯泰隆出生在中国。</v>
       </c>
       <c r="D767" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="768">
@@ -11151,7 +11151,7 @@
         <v>劳伦斯·奥利维尔在美国。</v>
       </c>
       <c r="D768" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="769">
@@ -11165,7 +11165,7 @@
         <v>戈洛夫金是一只鱿鱼。</v>
       </c>
       <c r="D769" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="770">
@@ -11179,7 +11179,7 @@
         <v>诺瓦克·德约科维奇是一名运动员。</v>
       </c>
       <c r="D770" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="771">
@@ -11193,7 +11193,7 @@
         <v>格雷斯·琼斯在《致命视线》中表演。</v>
       </c>
       <c r="D771" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="772">
@@ -11207,7 +11207,7 @@
         <v>丹尼斯·霍珀是澳大利亚人。</v>
       </c>
       <c r="D772" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="773">
@@ -11221,7 +11221,7 @@
         <v>《爱与友情》是一部商业片。</v>
       </c>
       <c r="D773" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="774">
@@ -11235,7 +11235,7 @@
         <v>西班牙是一个国家。</v>
       </c>
       <c r="D774" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="775">
@@ -11249,7 +11249,7 @@
         <v>托尼·戈德温是一位德国制片人。</v>
       </c>
       <c r="D775" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="776">
@@ -11263,7 +11263,7 @@
         <v>罗曼·雷恩斯是一名职业棒球运动员。</v>
       </c>
       <c r="D776" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="777">
@@ -11277,7 +11277,7 @@
         <v>弗拉基米尔·普京从1997年到2008年担任总统。</v>
       </c>
       <c r="D777" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="778">
@@ -11291,7 +11291,7 @@
         <v>西雅图是华盛顿州最大的城市。</v>
       </c>
       <c r="D778" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="779">
@@ -11305,7 +11305,7 @@
         <v>安迪·考夫曼是个野蛮人。</v>
       </c>
       <c r="D779" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="780">
@@ -11319,7 +11319,7 @@
         <v>丹尼·凯瑞没有中间名。</v>
       </c>
       <c r="D780" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="781">
@@ -11333,7 +11333,7 @@
         <v>老虎伍兹赢得了棕榈泉邀请赛。</v>
       </c>
       <c r="D781" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="782">
@@ -11347,7 +11347,7 @@
         <v>BRIT学校成立于1922年。</v>
       </c>
       <c r="D782" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="783">
@@ -11361,7 +11361,7 @@
         <v>约翰·韦恩·盖西 Jr. 涉及犯罪。</v>
       </c>
       <c r="D783" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="784">
@@ -11375,7 +11375,7 @@
         <v>党卫军的指挥官是海因里希·希姆莱。</v>
       </c>
       <c r="D784" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="785">
@@ -11389,7 +11389,7 @@
         <v>费基有一只叫“直言不讳”的狗。</v>
       </c>
       <c r="D785" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="786">
@@ -11403,7 +11403,7 @@
         <v>乔伊·格雷塞法与一家总部位于加利福尼亚州圣伯纳迪诺的网站合作。</v>
       </c>
       <c r="D786" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="787">
@@ -11431,7 +11431,7 @@
         <v>卡梅罗·安东尼为一支足球队效力。</v>
       </c>
       <c r="D788" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="789">
@@ -11445,7 +11445,7 @@
         <v>汤姆·费尔顿是双子座。</v>
       </c>
       <c r="D789" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="790">
@@ -11459,7 +11459,7 @@
         <v>《欢乐合唱团》的最后一季于2013年4月19日被订购。</v>
       </c>
       <c r="D790" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="791">
@@ -11473,7 +11473,7 @@
         <v>《欢乐合唱团》是一部电影。</v>
       </c>
       <c r="D791" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="792">
@@ -11487,7 +11487,7 @@
         <v>所有关于人民儿童监护权的法律规定，父母必须结婚。</v>
       </c>
       <c r="D792" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="793">
@@ -11501,7 +11501,7 @@
         <v>审判中有证人在作证。</v>
       </c>
       <c r="D793" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="794">
@@ -11515,7 +11515,7 @@
         <v>德克斯特对“我有一个梦想”冰淇淋的想法哈哈大笑。</v>
       </c>
       <c r="D794" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="795">
@@ -11529,7 +11529,7 @@
         <v>鱼承认他可能是错的。</v>
       </c>
       <c r="D795" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="796">
@@ -11543,7 +11543,7 @@
         <v>不是想要反对你，但穆索里尼是图季曼的主要灵感来源，因为他还是一位年轻的政治家。</v>
       </c>
       <c r="D796" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="797">
@@ -11557,7 +11557,7 @@
         <v>法尔韦尔风格的基督徒相信基督是犹太人。</v>
       </c>
       <c r="D797" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="798">
@@ -11571,7 +11571,7 @@
         <v>他们说他的信息不值得考虑。</v>
       </c>
       <c r="D798" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="799">
@@ -11585,7 +11585,7 @@
         <v>里奇和医生在审判中否认对温妮特犯有任何错误行为。</v>
       </c>
       <c r="D799" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="800">
@@ -11599,7 +11599,7 @@
         <v>读者一直读到书的最后。</v>
       </c>
       <c r="D800" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="801">
@@ -11627,7 +11627,7 @@
         <v>《纽约客》停止了“来自欧洲的信件”专栏。</v>
       </c>
       <c r="D802" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="803">
@@ -11641,7 +11641,7 @@
         <v>我的名字可能是皮埃尔·勒克拉克。</v>
       </c>
       <c r="D803" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="804">
@@ -11655,7 +11655,7 @@
         <v>弹球机可以用于赌博。</v>
       </c>
       <c r="D804" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="805">
@@ -11669,7 +11669,7 @@
         <v>涉及炸弹的犯罪将像其他犯罪一样被起诉。</v>
       </c>
       <c r="D805" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="806">
@@ -11683,7 +11683,7 @@
         <v>新罕布什尔州和爱荷华州常常改变一个人的想法。</v>
       </c>
       <c r="D806" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="807">
@@ -11697,7 +11697,7 @@
         <v>现在有一个天才可以帮助我们解决这个问题。</v>
       </c>
       <c r="D807" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="808">
@@ -11711,7 +11711,7 @@
         <v>毫无疑问，其他星球上存在生命。</v>
       </c>
       <c r="D808" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="809">
@@ -11725,7 +11725,7 @@
         <v>多西·希利知道莫里斯。</v>
       </c>
       <c r="D809" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="810">
@@ -11739,7 +11739,7 @@
         <v>诉诸那个立场是错误的。</v>
       </c>
       <c r="D810" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="811">
@@ -11753,7 +11753,7 @@
         <v>游说者和大额捐款者更容易接触参议员。</v>
       </c>
       <c r="D811" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="812">
@@ -11767,7 +11767,7 @@
         <v>实际上，在1992年还有更多国家可以参与，</v>
       </c>
       <c r="D812" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="813">
@@ -11781,7 +11781,7 @@
         <v>有人可能把本周《这一周》的录音带给了肯尼斯·斯塔尔。</v>
       </c>
       <c r="D813" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="814">
@@ -11795,7 +11795,7 @@
         <v>锐步故意给这款鞋起了一个挑衅的名字。</v>
       </c>
       <c r="D814" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="815">
@@ -11809,7 +11809,7 @@
         <v>被收养的孩子在游乐场欺负每个人。</v>
       </c>
       <c r="D815" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="816">
@@ -11823,7 +11823,7 @@
         <v>电网、银行、空中交通计算机、医疗设备等的灾难性关闭将在未来几年内得到避免。</v>
       </c>
       <c r="D816" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="817">
@@ -11837,7 +11837,7 @@
         <v>Lang认为主要得到证实的假设是错误的。</v>
       </c>
       <c r="D817" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="818">
@@ -11851,7 +11851,7 @@
         <v>今天，一名间谍声称，根据死者的了解，在接受一位信件撰写者采访时，美国当局可能已批准了对吴廷琰的暗杀。</v>
       </c>
       <c r="D818" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="819">
@@ -11865,7 +11865,7 @@
         <v>共和党人避免批评总统，因为他来自他们的党。</v>
       </c>
       <c r="D819" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="820">
@@ -11879,7 +11879,7 @@
         <v>他的脸上写满了痛苦，他看起来很痛苦。</v>
       </c>
       <c r="D820" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="821">
@@ -11893,7 +11893,7 @@
         <v>她对他们有一个秘密。</v>
       </c>
       <c r="D821" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="822">
@@ -11907,7 +11907,7 @@
         <v>很难判断他们是否在正确的地方。</v>
       </c>
       <c r="D822" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="823">
@@ -11921,7 +11921,7 @@
         <v>放松管制的支持者在过去的周年纪念中收到了许多礼物。</v>
       </c>
       <c r="D823" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="824">
@@ -11935,7 +11935,7 @@
         <v>安曼是一次代价高昂的失败。</v>
       </c>
       <c r="D824" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="825">
@@ -11949,7 +11949,7 @@
         <v>雇主应该向股东出售鸡蛋。</v>
       </c>
       <c r="D825" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="826">
@@ -11963,7 +11963,7 @@
         <v>大学生对血汗工厂毫不在意。</v>
       </c>
       <c r="D826" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="827">
@@ -11977,7 +11977,7 @@
         <v>国会可能会超支。</v>
       </c>
       <c r="D827" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="828">
@@ -11991,7 +11991,7 @@
         <v>杰斯·古普塔可能是同性恋。</v>
       </c>
       <c r="D828" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="829">
@@ -12005,7 +12005,7 @@
         <v>亨利喜欢通过给女孩她喜欢的东西来让她开心得尖叫。</v>
       </c>
       <c r="D829" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="830">
@@ -12019,7 +12019,7 @@
         <v>摩门教徒实行一夫多妻制。</v>
       </c>
       <c r="D830" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="831">
@@ -12033,7 +12033,7 @@
         <v>投资者应该因负面信息将资金撤出微软。</v>
       </c>
       <c r="D831" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="832">
@@ -12047,7 +12047,7 @@
         <v>他们认为他应该花更多时间在网上。</v>
       </c>
       <c r="D832" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="833">
@@ -12061,7 +12061,7 @@
         <v>发生严重后果的车祸可能是乔未能当选国会的原因。</v>
       </c>
       <c r="D833" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="834">
@@ -12075,7 +12075,7 @@
         <v>这个人没有考虑他们的决定。</v>
       </c>
       <c r="D834" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="835">
@@ -12089,7 +12089,7 @@
         <v>作者看过《威尼斯商人》。</v>
       </c>
       <c r="D835" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="836">
@@ -12103,7 +12103,7 @@
         <v>该产品预计将在6月、7月和8月的夏季月份上架。</v>
       </c>
       <c r="D836" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="837">
@@ -12117,7 +12117,7 @@
         <v>社会可能有一天会崩溃。</v>
       </c>
       <c r="D837" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="838">
@@ -12131,7 +12131,7 @@
         <v>作者很可能在去世之前就会得上致命疾病。</v>
       </c>
       <c r="D838" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="839">
@@ -12145,7 +12145,7 @@
         <v>我们可以访问受版权保护的材料。</v>
       </c>
       <c r="D839" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="840">
@@ -12159,7 +12159,7 @@
         <v>他们可能全都是奴隶。</v>
       </c>
       <c r="D840" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="841">
@@ -12173,7 +12173,7 @@
         <v>美国和俄罗斯正在一起打仗。</v>
       </c>
       <c r="D841" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="842">
@@ -12187,7 +12187,7 @@
         <v>加入北约几乎没有额外的保护。</v>
       </c>
       <c r="D842" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="843">
@@ -12201,7 +12201,7 @@
         <v>股权期权对消费者来说很少是合法的。</v>
       </c>
       <c r="D843" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="844">
@@ -12215,7 +12215,7 @@
         <v>该计划将扩展以包括警察。</v>
       </c>
       <c r="D844" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="845">
@@ -12229,7 +12229,7 @@
         <v>他不会对与自己有不同宗教信仰的人过于苛责。</v>
       </c>
       <c r="D845" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="846">
@@ -12243,7 +12243,7 @@
         <v>他们有选择来摆脱困境。</v>
       </c>
       <c r="D846" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="847">
@@ -12257,7 +12257,7 @@
         <v>她已经改变了。</v>
       </c>
       <c r="D847" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="848">
@@ -12271,7 +12271,7 @@
         <v>大额贷款将会带来改变。</v>
       </c>
       <c r="D848" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="849">
@@ -12285,7 +12285,7 @@
         <v>苹果公司允许一些公司，如IBM和惠普，生产运行其操作系统的硬件。</v>
       </c>
       <c r="D849" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="850">
@@ -12299,7 +12299,7 @@
         <v>可以在没有家庭问题的情况下要求人们离开。</v>
       </c>
       <c r="D850" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="851">
@@ -12327,7 +12327,7 @@
         <v>伊拉克突击队可能很难逃避新闻媒体的任何报道。</v>
       </c>
       <c r="D852" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="853">
@@ -12341,7 +12341,7 @@
         <v>一家鞋业公司的高层员工并未受到调查。</v>
       </c>
       <c r="D853" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="854">
@@ -12355,7 +12355,7 @@
         <v>特里普实际上骑过一条龙，但媒体忽视了这一点，而是专注于她在法庭上的证词。</v>
       </c>
       <c r="D854" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="855">
@@ -12369,7 +12369,7 @@
         <v>没有人确定伯格曼何时决定维甘德不重要。</v>
       </c>
       <c r="D855" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="856">
@@ -12383,7 +12383,7 @@
         <v>这本书以论点结束。</v>
       </c>
       <c r="D856" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="857">
@@ -12397,7 +12397,7 @@
         <v>非营利人类服务提供者必须采用外国的做法和思维方式才能有效工作。</v>
       </c>
       <c r="D857" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="858">
@@ -12411,7 +12411,7 @@
         <v>保留的常旅客里程可以兑换现金价值。</v>
       </c>
       <c r="D858" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="859">
@@ -12439,7 +12439,7 @@
         <v>某些类型的服务创新提案应由美国邮政局考虑。</v>
       </c>
       <c r="D860" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="861">
@@ -12453,7 +12453,7 @@
         <v>微软的行为受到质疑，目前正在接受调查。</v>
       </c>
       <c r="D861" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="862">
@@ -12467,7 +12467,7 @@
         <v>比尔·布拉德利和阿尔·戈尔是除了亚利桑那州民主党之外，唯一受到网络投票欺诈影响的其他人。</v>
       </c>
       <c r="D862" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="863">
@@ -12481,7 +12481,7 @@
         <v>股票期权是个好主意。</v>
       </c>
       <c r="D863" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="864">
@@ -12495,7 +12495,7 @@
         <v>没有人确定什么是“bravura”，但医生们希望它可以被移除。</v>
       </c>
       <c r="D864" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="865">
@@ -12509,7 +12509,7 @@
         <v>A 看起来像一个有鹅卵石庭院的乡村酒吧。</v>
       </c>
       <c r="D865" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="866">
@@ -12523,7 +12523,7 @@
         <v>国家科学院报告了关于PM的研究优先事项。</v>
       </c>
       <c r="D866" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="867">
@@ -12537,7 +12537,7 @@
         <v>导游偷偷进入葡萄牙政府的官方住所并不罕见。</v>
       </c>
       <c r="D867" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="868">
@@ -12551,7 +12551,7 @@
         <v>希腊可以吞并意大利北部和东部的岛屿，并抓住了这个机会。</v>
       </c>
       <c r="D868" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="869">
@@ -12565,7 +12565,7 @@
         <v>对2000年转换工作的严峻时间限制绝不应影响敏感数据的保密性。</v>
       </c>
       <c r="D869" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="870">
@@ -12579,7 +12579,7 @@
         <v>他只在私下谈论总统。</v>
       </c>
       <c r="D870" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="871">
@@ -12593,7 +12593,7 @@
         <v>无论我穿得怎样，你都是那个真正的富兰克林。</v>
       </c>
       <c r="D871" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="872">
@@ -12607,7 +12607,7 @@
         <v>树木看起来很美。</v>
       </c>
       <c r="D872" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="873">
@@ -12621,7 +12621,7 @@
         <v>共和党曾经对让金里奇留任感兴趣。</v>
       </c>
       <c r="D873" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="874">
@@ -12635,7 +12635,7 @@
         <v>总有人知道它在哪里。</v>
       </c>
       <c r="D874" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="875">
@@ -12649,7 +12649,7 @@
         <v>我想他们给我丈夫发了一封信，想确认你的丈夫是否在TI工作。</v>
       </c>
       <c r="D875" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="876">
@@ -12663,7 +12663,7 @@
         <v>这可以做多少份？</v>
       </c>
       <c r="D876" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="877">
@@ -12677,7 +12677,7 @@
         <v>他们对时尚感没有任何了解。</v>
       </c>
       <c r="D877" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="878">
@@ -12691,7 +12691,7 @@
         <v>德鲁知道唐吉诃德。</v>
       </c>
       <c r="D878" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="879">
@@ -12705,7 +12705,7 @@
         <v>美国国家航空航天局（NASA）的支持者一直认为这是一个资金问题。</v>
       </c>
       <c r="D879" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="880">
@@ -12719,7 +12719,7 @@
         <v>德鲁接受了马的报价。</v>
       </c>
       <c r="D880" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="881">
@@ -12761,7 +12761,7 @@
         <v>多准备一些是值得的，因为它可能不会被投票通过。</v>
       </c>
       <c r="D883" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="884">
@@ -12775,7 +12775,7 @@
         <v>预计审判将花费谢克从100,000美元到300,000美元，她完全能够负担得起。</v>
       </c>
       <c r="D884" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="885">
@@ -12789,7 +12789,7 @@
         <v>桑多罗把乔恩抱起来，让他能够站起来。</v>
       </c>
       <c r="D885" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="886">
@@ -12803,7 +12803,7 @@
         <v>人们不禁想知道他作为马戏团小丑的经历是否影响了他的摄影。</v>
       </c>
       <c r="D886" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="887">
@@ -12817,7 +12817,7 @@
         <v>这个决定将决定这些估计是否会改变。</v>
       </c>
       <c r="D887" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="888">
@@ -12831,7 +12831,7 @@
         <v>统治精英主导国家经济。</v>
       </c>
       <c r="D888" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="889">
@@ -12873,7 +12873,7 @@
         <v>一个人可能对两个提议没有偏好。</v>
       </c>
       <c r="D891" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="892">
@@ -12887,7 +12887,7 @@
         <v>新的排放规则于1996年5月发布。</v>
       </c>
       <c r="D892" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="893">
@@ -12901,7 +12901,7 @@
         <v>它可能不会最终成为一个民主国家。</v>
       </c>
       <c r="D893" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="894">
@@ -12915,7 +12915,7 @@
         <v>这个值很大，一定是某种错误。</v>
       </c>
       <c r="D894" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="895">
@@ -12929,7 +12929,7 @@
         <v>你一定是在战争中死去的。</v>
       </c>
       <c r="D895" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="896">
@@ -12943,7 +12943,7 @@
         <v>作者很高兴这个想法没有实现。</v>
       </c>
       <c r="D896" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="897">
@@ -12957,7 +12957,7 @@
         <v>必须安装先进的接收系统以帮助更多客户。</v>
       </c>
       <c r="D897" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="898">
@@ -12971,7 +12971,7 @@
         <v>联邦财政政策可能通过多种方式影响国家储蓄。</v>
       </c>
       <c r="D898" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="899">
@@ -12985,7 +12985,7 @@
         <v>香蕉奶油派是最棒的，可以带回家。</v>
       </c>
       <c r="D899" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="900">
@@ -13013,7 +13013,7 @@
         <v>烛光使这个人看起来更加健壮。</v>
       </c>
       <c r="D901" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="902">

--- a/Annotations/annotations_ZH.xlsx
+++ b/Annotations/annotations_ZH.xlsx
@@ -13027,7 +13027,7 @@
         <v>该协议符合北美自由贸易协定的规定。</v>
       </c>
       <c r="D902" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="903">
@@ -13041,7 +13041,7 @@
         <v>进行电子邮件营销活动的最佳方式就是随意应对。列出客户名单。打扰人们是获得追随者的好方法。电子邮件营销起源于1980年代。</v>
       </c>
       <c r="D903" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="904">
@@ -13055,7 +13055,7 @@
         <v>没有来自纽约的成员。</v>
       </c>
       <c r="D904" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="905">
@@ -13069,7 +13069,7 @@
         <v>小狗是为了庆祝它一岁生日。</v>
       </c>
       <c r="D905" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="906">
@@ -13083,7 +13083,7 @@
         <v>YouTube用户Streetcap1发布了一系列由中国月球探测器嫦娥四号拍摄的照片。</v>
       </c>
       <c r="D906" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="907">
@@ -13097,7 +13097,7 @@
         <v>分心的状态可以通过视觉感官感知。</v>
       </c>
       <c r="D907" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="908">
@@ -13111,7 +13111,7 @@
         <v>赖斯·安东尼学校不允许9岁男孩入学。</v>
       </c>
       <c r="D908" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="909">
@@ -13125,7 +13125,7 @@
         <v>州长提议加倍进行国家建设。</v>
       </c>
       <c r="D909" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="910">
@@ -13153,7 +13153,7 @@
         <v>秋天的颜色与降雨量无关。</v>
       </c>
       <c r="D911" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="912">
@@ -13167,7 +13167,7 @@
         <v>尤素夫·卡拉不是菲律宾总统。</v>
       </c>
       <c r="D912" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="913">
@@ -13181,7 +13181,7 @@
         <v>共享区域考虑了城市设计。</v>
       </c>
       <c r="D913" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="914">
@@ -13195,7 +13195,7 @@
         <v>从麦迪逊开车过去不到5小时。</v>
       </c>
       <c r="D914" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="915">
@@ -13209,7 +13209,7 @@
         <v>《地狱之刃》的排名高于《时间的尽头》。</v>
       </c>
       <c r="D915" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="916">
@@ -13223,7 +13223,7 @@
         <v>医生正要去散步时，所有这一切发生了。</v>
       </c>
       <c r="D916" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="917">
@@ -13237,7 +13237,7 @@
         <v>查克·赖特是安静骚动乐队众多背景歌手之一。</v>
       </c>
       <c r="D917" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="918">
@@ -13251,7 +13251,7 @@
         <v>中央大厅最多只能容纳10,014人观看篮球比赛。</v>
       </c>
       <c r="D918" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="919">
@@ -13265,7 +13265,7 @@
         <v>将会审查几位宪法律师。</v>
       </c>
       <c r="D919" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="920">
@@ -13279,7 +13279,7 @@
         <v>弱纸板比坚固的好。</v>
       </c>
       <c r="D920" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="921">
@@ -13293,7 +13293,7 @@
         <v>一些医学数值很大。</v>
       </c>
       <c r="D921" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="922">
@@ -13307,7 +13307,7 @@
         <v>埃里克觉得尼尔穿工作服比穿正装更好看。</v>
       </c>
       <c r="D922" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="923">
@@ -13321,7 +13321,7 @@
         <v>在总统任内，美国的工作岗位正在流失。</v>
       </c>
       <c r="D923" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="924">
@@ -13335,7 +13335,7 @@
         <v>经济增长是自由之地和勇敢者之家最高统帅最重要的关注点。</v>
       </c>
       <c r="D924" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="925">
@@ -13349,7 +13349,7 @@
         <v>“提供宣誓书”是非常具体的语言。</v>
       </c>
       <c r="D925" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="926">
@@ -13363,7 +13363,7 @@
         <v>鼹鼠先生是一个虚构角色。</v>
       </c>
       <c r="D926" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="927">
@@ -13377,7 +13377,7 @@
         <v>这些男人在经过一栋建筑时遭到里面的枪击。</v>
       </c>
       <c r="D927" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="928">
@@ -13391,7 +13391,7 @@
         <v>那名男子没有在现场死亡。</v>
       </c>
       <c r="D928" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="929">
@@ -13433,7 +13433,7 @@
         <v>《全为爱》是由不到四个人创作的。</v>
       </c>
       <c r="D931" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="932">
@@ -13447,7 +13447,7 @@
         <v>从麦迪逊出发，开车不到6小时就能到达。</v>
       </c>
       <c r="D932" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="933">
@@ -13475,7 +13475,7 @@
         <v>这个节目不再叫“杰克·霍克海默：星际追逐者”。</v>
       </c>
       <c r="D934" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="935">
@@ -13489,7 +13489,7 @@
         <v>泡泡糖更适合吹泡泡。</v>
       </c>
       <c r="D935" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="936">
@@ -13503,7 +13503,7 @@
         <v>这位发言人参加过许多皇家批准仪式。</v>
       </c>
       <c r="D936" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="937">
@@ -13517,7 +13517,7 @@
         <v>加拿大政府已秘密进行了一年的谈判。</v>
       </c>
       <c r="D937" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="938">
@@ -13531,7 +13531,7 @@
         <v>戈尔被称为州长。</v>
       </c>
       <c r="D938" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="939">
@@ -13545,7 +13545,7 @@
         <v>Streetcap1在发布来自中国月球探测器嫦娥三号的照片时正处于月球上。</v>
       </c>
       <c r="D939" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="940">
@@ -13559,7 +13559,7 @@
         <v>嫦娥三号没有在YouTube上发布视频片段。</v>
       </c>
       <c r="D940" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="941">
@@ -13573,7 +13573,7 @@
         <v>趋势正在回归。</v>
       </c>
       <c r="D941" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="942">
@@ -13587,7 +13587,7 @@
         <v>在农民的脑海中有人行道。</v>
       </c>
       <c r="D942" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="943">
@@ -13615,7 +13615,7 @@
         <v>《Holding Back the River》在排行榜上的成绩超过了乐队的首张专辑。</v>
       </c>
       <c r="D944" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="945">
@@ -13629,7 +13629,7 @@
         <v>戈登在本赛季的另一场比赛中多次得分。</v>
       </c>
       <c r="D945" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="946">
@@ -13643,7 +13643,7 @@
         <v>Beat TV的播出时间超过两个小时。</v>
       </c>
       <c r="D946" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="947">
@@ -13657,7 +13657,7 @@
         <v>大十二联盟中有超过10所学校。</v>
       </c>
       <c r="D947" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="948">
@@ -13671,7 +13671,7 @@
         <v>格拉斯哥的凯尔文格罗夫博物馆曾在印度。</v>
       </c>
       <c r="D948" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="949">
@@ -13685,7 +13685,7 @@
         <v>安妮特·阿塔尼并不是所有歌曲的创作者。</v>
       </c>
       <c r="D949" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="950">
@@ -13699,7 +13699,7 @@
         <v>艾米和安娜在咖啡馆偶然相遇后再次见面。</v>
       </c>
       <c r="D950" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="951">
@@ -13713,7 +13713,7 @@
         <v>鲍勃·亚当斯机场位于扬帕谷地区机场以东二十五英里处。</v>
       </c>
       <c r="D951" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="952">
@@ -13727,7 +13727,7 @@
         <v>并不是每个人都值得享受医疗保险。</v>
       </c>
       <c r="D952" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="953">
@@ -13741,7 +13741,7 @@
         <v>尼尔·戈登并不是一个时尚的人。</v>
       </c>
       <c r="D953" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="954">
@@ -13755,7 +13755,7 @@
         <v>声明包含不到大约28个字。</v>
       </c>
       <c r="D954" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="955">
@@ -13769,7 +13769,7 @@
         <v>每个人的发言时间都在下一个人之前的5分钟内。</v>
       </c>
       <c r="D955" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="956">
@@ -13783,7 +13783,7 @@
         <v>南希·哈特·道格拉斯并不是石墙杰克逊将军的侦察员。</v>
       </c>
       <c r="D956" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="957">
@@ -13797,7 +13797,7 @@
         <v>泰国和柬埔寨无法就一座寺庙的所有权达成协议。</v>
       </c>
       <c r="D957" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="958">
@@ -13811,7 +13811,7 @@
         <v>在帕梅拉被谋杀三周多后，洛伊丝·里斯被警方拘留。</v>
       </c>
       <c r="D958" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="959">
@@ -13839,7 +13839,7 @@
         <v>詹森·阿克尔斯并不以在电视剧《小镇风云》中饰演杰森·提格而闻名。</v>
       </c>
       <c r="D960" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="961">
@@ -13853,7 +13853,7 @@
         <v>《十二个更便宜》是由一只猫执导的。</v>
       </c>
       <c r="D961" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="962">
@@ -13867,7 +13867,7 @@
         <v>科恩兄弟执导了一部惊悚片。</v>
       </c>
       <c r="D962" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="963">
@@ -13881,7 +13881,7 @@
         <v>穆罕默德是先知。</v>
       </c>
       <c r="D963" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="964">
@@ -13895,7 +13895,7 @@
         <v>维纳斯·威廉姆斯参加网球单打比赛。</v>
       </c>
       <c r="D964" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="965">
@@ -13909,7 +13909,7 @@
         <v>布兰妮·墨菲主演了一部电影。</v>
       </c>
       <c r="D965" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="966">
@@ -13923,7 +13923,7 @@
         <v>百慕大于1609年被殖民。</v>
       </c>
       <c r="D966" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="967">
@@ -13937,7 +13937,7 @@
         <v>哈里·斯泰尔斯和他的乐队成员发布了民谣专辑《午夜回忆》。</v>
       </c>
       <c r="D967" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="968">
@@ -13951,7 +13951,7 @@
         <v>《神奇动物在哪里》是一本自然书籍。</v>
       </c>
       <c r="D968" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="969">
@@ -13965,7 +13965,7 @@
         <v>米尔卡·费德勒是一位曾经职业打球的网球运动员，现在已经不再比赛。</v>
       </c>
       <c r="D969" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="970">
@@ -13979,7 +13979,7 @@
         <v>大秀的出生名字是保罗·唐纳德·怀特二世，尽管他在职业摔跤中使用大秀这个名字。</v>
       </c>
       <c r="D970" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="971">
@@ -13993,7 +13993,7 @@
         <v>莱斯莉·阿甘斯出演了一部由蒂姆·米勒执导的电影。</v>
       </c>
       <c r="D971" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="972">
@@ -14007,7 +14007,7 @@
         <v>维纳斯·威廉姆斯打单打网球。</v>
       </c>
       <c r="D972" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="973">
@@ -14021,7 +14021,7 @@
         <v>德鲁·巴里莫尔出演了一部电影。</v>
       </c>
       <c r="D973" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="974">
@@ -14035,7 +14035,7 @@
         <v>《玩具总动员》并不是基于之前发布的材料，因此可以被提名为最佳原创剧本。</v>
       </c>
       <c r="D974" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="975">
@@ -14049,7 +14049,7 @@
         <v>马拉拉·优素福扎伊是女性教育权利的倡导者。</v>
       </c>
       <c r="D975" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="976">
@@ -14063,7 +14063,7 @@
         <v>π是一个数字。</v>
       </c>
       <c r="D976" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="977">
@@ -14077,7 +14077,7 @@
         <v>阿塞拜疆的高比例人口是识字的。</v>
       </c>
       <c r="D977" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="978">
@@ -14091,7 +14091,7 @@
         <v>意大利的官方名称更长。</v>
       </c>
       <c r="D978" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="979">
@@ -14105,7 +14105,7 @@
         <v>马特·格罗宁因《辛普森一家》获得了黄金时段艾美奖。</v>
       </c>
       <c r="D979" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="980">
@@ -14119,7 +14119,7 @@
         <v>穆罕默德对宗教具有重要意义。</v>
       </c>
       <c r="D980" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="981">
@@ -14133,7 +14133,7 @@
         <v>约翰·麦肯罗是一名网球运动员。</v>
       </c>
       <c r="D981" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="982">
@@ -14147,7 +14147,7 @@
         <v>黑镜是一匹赛马。</v>
       </c>
       <c r="D982" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="983">
@@ -14175,7 +14175,7 @@
         <v>约翰·麦凯恩在1989年因凯廷五人组而被指控腐败。</v>
       </c>
       <c r="D984" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="985" xml:space="preserve">
@@ -14197,7 +14197,7 @@
         <v>《瓦莱里安与千星之城》有一位演员。</v>
       </c>
       <c r="D985" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="986">
@@ -14211,7 +14211,7 @@
         <v>维纳斯·威廉姆斯在网球中打单打。</v>
       </c>
       <c r="D986" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="987">
@@ -14225,7 +14225,7 @@
         <v>瓦卢瓦的玛格丽特有姐妹。</v>
       </c>
       <c r="D987" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="988">
@@ -14239,7 +14239,7 @@
         <v>马特·格罗宁因《辛普森一家》赢得了十个意大利牛肉三明治。</v>
       </c>
       <c r="D988" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="989">
@@ -14253,7 +14253,7 @@
         <v>纳什维尔作曲家协会国际提供音乐产业教育。</v>
       </c>
       <c r="D989" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="990">
@@ -14267,7 +14267,7 @@
         <v>《蝙蝠侠：侠影之谜》早于北美独立。</v>
       </c>
       <c r="D990" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="991">
@@ -14281,7 +14281,7 @@
         <v>《玩具总动员》并不是基于之前发表的材料，因此可以被提名为最佳原创剧本。</v>
       </c>
       <c r="D991" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="992">
@@ -14295,7 +14295,7 @@
         <v>比利·乔尔在表演艺术行业。</v>
       </c>
       <c r="D992" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="993">
@@ -14309,7 +14309,7 @@
         <v>《饥饿游戏：燃烧的女孩》已发行平装本。</v>
       </c>
       <c r="D993" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="994">
@@ -14323,7 +14323,7 @@
         <v>布兰妮·墨菲曾是一位演员。</v>
       </c>
       <c r="D994" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="995">
@@ -14337,7 +14337,7 @@
         <v>福ighters乐队创作音乐。</v>
       </c>
       <c r="D995" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="996">
@@ -14351,7 +14351,7 @@
         <v>波音777是世界上航程最远的客机。</v>
       </c>
       <c r="D996" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="997">
@@ -14365,7 +14365,7 @@
         <v>穆罕默德对宗教具有重要意义。</v>
       </c>
       <c r="D997" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="998">
@@ -14379,7 +14379,7 @@
         <v>变形金刚：复仇之战是一部电影。</v>
       </c>
       <c r="D998" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="999">
@@ -14393,7 +14393,7 @@
         <v>大秀的艺名是保罗·唐纳德·怀特二世。</v>
       </c>
       <c r="D999" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="1000">
@@ -14407,7 +14407,7 @@
         <v>穆罕默德对宗教具有重要意义。</v>
       </c>
       <c r="D1000" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="1001">
@@ -14421,7 +14421,7 @@
         <v>华金·菲尼克斯执导过电影。</v>
       </c>
       <c r="D1001" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
   </sheetData>
